--- a/Arkusz Kalkulacyjny/Na sprawdzian/Zestaw 2.xlsx
+++ b/Arkusz Kalkulacyjny/Na sprawdzian/Zestaw 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\Informatyka-24-25\Arkusz Kalkulacyjny\Na sprawdzian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B42858-7091-4540-A31E-F2BF89081A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E2878E-5CB8-4B3E-8A0A-D907D6810838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zadanie 82 Piraci" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Zadanie 86 Wybory" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Zadanie 83 Wilki i zające'!$A$1:$E$201</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Zadanie 83 Wilki i zające'!$A$1:$E$202</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Zadanie 84 LPG'!$B$2:$K$368</definedName>
     <definedName name="dane_wybory" localSheetId="4">'Zadanie 86 Wybory'!$B$3:$G$22</definedName>
     <definedName name="lpg" localSheetId="2">'Zadanie 84 LPG'!$B$4:$C$368</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>W polnoc</t>
   </si>
@@ -327,6 +327,72 @@
   <si>
     <t>Matecznik</t>
   </si>
+  <si>
+    <t xml:space="preserve">Mandaty k1 </t>
+  </si>
+  <si>
+    <t>Mandaty k2</t>
+  </si>
+  <si>
+    <t>Mandaty k3</t>
+  </si>
+  <si>
+    <t>Mandaty k4</t>
+  </si>
+  <si>
+    <t>Mandaty k5</t>
+  </si>
+  <si>
+    <t>Metoda standardowa</t>
+  </si>
+  <si>
+    <t>Metoda regionalna</t>
+  </si>
+  <si>
+    <t>Okręg A</t>
+  </si>
+  <si>
+    <t>Okręg B</t>
+  </si>
+  <si>
+    <t>Okręg C</t>
+  </si>
+  <si>
+    <t>Okręg D</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Man Q</t>
+  </si>
+  <si>
+    <t>Man R</t>
+  </si>
+  <si>
+    <t>Okręg 20</t>
+  </si>
+  <si>
+    <t>Okręg 40</t>
+  </si>
+  <si>
+    <t>Okręg 100</t>
+  </si>
 </sst>
 </file>
 
@@ -392,7 +458,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -403,6 +469,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1218,7 +1285,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Zadanie 83 Wilki i zające'!$B$2:$B$241</c:f>
+              <c:f>'Zadanie 83 Wilki i zające'!$B$3:$B$242</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="240"/>
@@ -1226,721 +1293,721 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>30.0075</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.0075</c:v>
+                  <c:v>30.022541259375004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.022541259375004</c:v>
+                  <c:v>30.04516525183066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.04516525183066</c:v>
+                  <c:v>30.075413602920833</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.075413602920833</c:v>
+                  <c:v>30.113328011477115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.113328011477115</c:v>
+                  <c:v>30.158950154360085</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.158950154360085</c:v>
+                  <c:v>30.21232157392075</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.21232157392075</c:v>
+                  <c:v>30.273483547541996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.273483547541996</c:v>
+                  <c:v>30.342476938614364</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.342476938614364</c:v>
+                  <c:v>30.419342028288984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.419342028288984</c:v>
+                  <c:v>30.504118327343377</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.504118327343377</c:v>
+                  <c:v>30.596844367494164</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.596844367494164</c:v>
+                  <c:v>30.697557471494942</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>30.697557471494942</c:v>
+                  <c:v>30.806293501368966</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>30.806293501368966</c:v>
+                  <c:v>30.923086584145178</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>30.923086584145178</c:v>
+                  <c:v>31.047968814494109</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31.047968814494109</c:v>
+                  <c:v>31.180969933697657</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31.180969933697657</c:v>
+                  <c:v>31.322116984435237</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.322116984435237</c:v>
+                  <c:v>31.471433940928968</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.471433940928968</c:v>
+                  <c:v>31.628941314063987</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31.628941314063987</c:v>
+                  <c:v>31.794655731187074</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31.794655731187074</c:v>
+                  <c:v>31.968589490389604</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31.968589490389604</c:v>
+                  <c:v>32.15075008919937</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32.15075008919937</c:v>
+                  <c:v>32.341139727742281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32.341139727742281</c:v>
+                  <c:v>32.539754786589384</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32.539754786589384</c:v>
+                  <c:v>32.746585279678442</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>32.746585279678442</c:v>
+                  <c:v>32.961614282893535</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.961614282893535</c:v>
+                  <c:v>33.184817339100604</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.184817339100604</c:v>
+                  <c:v>33.416161840673205</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>33.416161840673205</c:v>
+                  <c:v>33.655606390800166</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33.655606390800166</c:v>
+                  <c:v>33.903100145146261</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.903100145146261</c:v>
+                  <c:v>34.158582135737554</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>34.158582135737554</c:v>
+                  <c:v>34.421980579264435</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.421980579264435</c:v>
+                  <c:v>34.693212172336587</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34.693212172336587</c:v>
+                  <c:v>34.972181376583606</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.972181376583606</c:v>
+                  <c:v>35.258779696870938</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35.258779696870938</c:v>
+                  <c:v>35.552884956290875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.552884956290875</c:v>
+                  <c:v>35.854360571989389</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.854360571989389</c:v>
+                  <c:v>36.163054836298379</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>36.163054836298379</c:v>
+                  <c:v>36.47880020805453</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>36.47880020805453</c:v>
+                  <c:v>36.801412619396878</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>36.801412619396878</c:v>
+                  <c:v>37.130690803738247</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>37.130690803738247</c:v>
+                  <c:v>37.466415650996353</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>37.466415650996353</c:v>
+                  <c:v>37.808349596541021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>37.808349596541021</c:v>
+                  <c:v>38.156236050657029</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>38.156236050657029</c:v>
+                  <c:v>38.509798875630963</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>38.509798875630963</c:v>
+                  <c:v>38.868741917835194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>38.868741917835194</c:v>
+                  <c:v>39.232748602395446</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>39.232748602395446</c:v>
+                  <c:v>39.601481598180605</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>39.601481598180605</c:v>
+                  <c:v>39.974582560935971</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>39.974582560935971</c:v>
+                  <c:v>40.351671962384806</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>40.351671962384806</c:v>
+                  <c:v>40.732349013039659</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>40.732349013039659</c:v>
+                  <c:v>41.116191686285951</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>41.116191686285951</c:v>
+                  <c:v>41.502756851018702</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>41.502756851018702</c:v>
+                  <c:v>41.891580519722368</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>41.891580519722368</c:v>
+                  <c:v>42.282178218378732</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42.282178218378732</c:v>
+                  <c:v>42.67404548396425</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42.67404548396425</c:v>
+                  <c:v>43.066658494555114</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43.066658494555114</c:v>
+                  <c:v>43.459474836194694</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43.459474836194694</c:v>
+                  <c:v>43.851934409696376</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43.851934409696376</c:v>
+                  <c:v>44.243460479459806</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>44.243460479459806</c:v>
+                  <c:v>44.633460865176652</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>44.633460865176652</c:v>
+                  <c:v>45.02132927600303</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>45.02132927600303</c:v>
+                  <c:v>45.406446785391829</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>45.406446785391829</c:v>
+                  <c:v>45.788183443323739</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>45.788183443323739</c:v>
+                  <c:v>46.165900021168305</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>46.165900021168305</c:v>
+                  <c:v>46.538949882865055</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>46.538949882865055</c:v>
+                  <c:v>46.906680974561347</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>46.906680974561347</c:v>
+                  <c:v>47.268437923301029</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>47.268437923301029</c:v>
+                  <c:v>47.623564233851248</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>47.623564233851248</c:v>
+                  <c:v>47.971404571308589</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>47.971404571308589</c:v>
+                  <c:v>48.311307115766645</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>48.311307115766645</c:v>
+                  <c:v>48.642625974079685</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>48.642625974079685</c:v>
+                  <c:v>48.964723632646866</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>48.964723632646866</c:v>
+                  <c:v>49.276973434190971</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49.276973434190971</c:v>
+                  <c:v>49.578762060736217</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>49.578762060736217</c:v>
+                  <c:v>49.869492004420245</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>49.869492004420245</c:v>
+                  <c:v>50.148584007420716</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50.148584007420716</c:v>
+                  <c:v>50.415479452149228</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>50.415479452149228</c:v>
+                  <c:v>50.669642682972167</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>50.669642682972167</c:v>
+                  <c:v>50.910563241063024</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>50.910563241063024</c:v>
+                  <c:v>51.137757994572794</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>51.137757994572794</c:v>
+                  <c:v>51.350773147118502</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>51.350773147118502</c:v>
+                  <c:v>51.549186108625022</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>51.549186108625022</c:v>
+                  <c:v>51.73260721379755</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>51.73260721379755</c:v>
+                  <c:v>51.900681274932964</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>51.900681274932964</c:v>
+                  <c:v>52.053088957376346</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>52.053088957376346</c:v>
+                  <c:v>52.189547967668162</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>52.189547967668162</c:v>
+                  <c:v>52.309814046281744</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>52.309814046281744</c:v>
+                  <c:v>52.413681758788869</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>52.413681758788869</c:v>
+                  <c:v>52.500985081283794</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>52.500985081283794</c:v>
+                  <c:v>52.571597777911258</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>52.571597777911258</c:v>
+                  <c:v>52.625433570351291</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>52.625433570351291</c:v>
+                  <c:v>52.662446101082452</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>52.662446101082452</c:v>
+                  <c:v>52.682628694147269</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52.682628694147269</c:v>
+                  <c:v>52.686013918952789</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>52.686013918952789</c:v>
+                  <c:v>52.672672964330779</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>52.672672964330779</c:v>
+                  <c:v>52.642714831636262</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>52.642714831636262</c:v>
+                  <c:v>52.596285357061397</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>52.596285357061397</c:v>
+                  <c:v>52.533566074570707</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>52.533566074570707</c:v>
+                  <c:v>52.454772931912885</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>52.454772931912885</c:v>
+                  <c:v>52.36015487302695</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>52.36015487302695</c:v>
+                  <c:v>52.249992300833554</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>52.249992300833554</c:v>
+                  <c:v>52.124595434886231</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>52.124595434886231</c:v>
+                  <c:v>51.984302578655182</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>51.984302578655182</c:v>
+                  <c:v>51.82947831133545</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>51.82947831133545</c:v>
+                  <c:v>51.660511619019985</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>51.660511619019985</c:v>
+                  <c:v>51.477813979867989</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>51.477813979867989</c:v>
+                  <c:v>51.281817417543451</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>51.281817417543451</c:v>
+                  <c:v>51.072972536711411</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>51.072972536711411</c:v>
+                  <c:v>50.851746553777033</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>50.851746553777033</c:v>
+                  <c:v>50.618621335350191</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>50.618621335350191</c:v>
+                  <c:v>50.374091456132909</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>50.374091456132909</c:v>
+                  <c:v>50.118662287074841</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>50.118662287074841</c:v>
+                  <c:v>49.852848123739143</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>49.852848123739143</c:v>
+                  <c:v>49.577170363882679</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>49.577170363882679</c:v>
+                  <c:v>49.29215574229557</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>49.29215574229557</c:v>
+                  <c:v>48.998334629978487</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>48.998334629978487</c:v>
+                  <c:v>48.696239403774705</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>48.696239403774705</c:v>
+                  <c:v>48.386402891628535</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>48.386402891628535</c:v>
+                  <c:v>48.069356897722422</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>48.069356897722422</c:v>
+                  <c:v>47.745630810859637</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>47.745630810859637</c:v>
+                  <c:v>47.415750298616061</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>47.415750298616061</c:v>
+                  <c:v>47.080236088987746</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>47.080236088987746</c:v>
+                  <c:v>46.739602840516532</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>46.739602840516532</c:v>
+                  <c:v>46.394358101186022</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>46.394358101186022</c:v>
+                  <c:v>46.045001355748191</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>46.045001355748191</c:v>
+                  <c:v>45.692023160567032</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>45.692023160567032</c:v>
+                  <c:v>45.335904364550984</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>45.335904364550984</c:v>
+                  <c:v>44.977115414289528</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>44.977115414289528</c:v>
+                  <c:v>44.61611574111037</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>44.61611574111037</c:v>
+                  <c:v>44.253353227430154</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>44.253353227430154</c:v>
+                  <c:v>43.889263749481557</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>43.889263749481557</c:v>
+                  <c:v>43.524270793260065</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>43.524270793260065</c:v>
+                  <c:v>43.158785140341983</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>43.158785140341983</c:v>
+                  <c:v>42.793204620077887</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>42.793204620077887</c:v>
+                  <c:v>42.427913924559746</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>42.427913924559746</c:v>
+                  <c:v>42.063284482691557</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>42.063284482691557</c:v>
+                  <c:v>41.699674389659314</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>41.699674389659314</c:v>
+                  <c:v>41.337428388093095</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>41.337428388093095</c:v>
+                  <c:v>40.97687789723841</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>40.97687789723841</c:v>
+                  <c:v>40.618341086502788</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>40.618341086502788</c:v>
+                  <c:v>40.262122989813257</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>40.262122989813257</c:v>
+                  <c:v>39.908515657308669</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>39.908515657308669</c:v>
+                  <c:v>39.557798340994118</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>39.557798340994118</c:v>
+                  <c:v>39.210237711100874</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>39.210237711100874</c:v>
+                  <c:v>38.866088100021955</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>38.866088100021955</c:v>
+                  <c:v>38.52559177082793</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>38.52559177082793</c:v>
+                  <c:v>38.188979207508368</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>38.188979207508368</c:v>
+                  <c:v>37.856469424229182</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>37.856469424229182</c:v>
+                  <c:v>37.528270291043611</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>37.528270291043611</c:v>
+                  <c:v>37.204578873643015</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>37.204578873643015</c:v>
+                  <c:v>36.885581784882049</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>36.885581784882049</c:v>
+                  <c:v>36.571455545959559</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>36.571455545959559</c:v>
+                  <c:v>36.262366955280946</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>36.262366955280946</c:v>
+                  <c:v>35.958473463169192</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>35.958473463169192</c:v>
+                  <c:v>35.659923550728706</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>35.659923550728706</c:v>
+                  <c:v>35.366857111299147</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>35.366857111299147</c:v>
+                  <c:v>35.079405833063689</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>35.079405833063689</c:v>
+                  <c:v>34.797693581498763</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>34.797693581498763</c:v>
+                  <c:v>34.521836780468277</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>34.521836780468277</c:v>
+                  <c:v>34.251944790876315</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>34.251944790876315</c:v>
+                  <c:v>33.98812028589613</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>33.98812028589613</c:v>
+                  <c:v>33.730459621891825</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>33.730459621891825</c:v>
+                  <c:v>33.479053204240678</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>33.479053204240678</c:v>
+                  <c:v>33.233985847349842</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>33.233985847349842</c:v>
+                  <c:v>32.995337128240678</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>32.995337128240678</c:v>
+                  <c:v>32.763181733147157</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>32.763181733147157</c:v>
+                  <c:v>32.537589796642202</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>32.537589796642202</c:v>
+                  <c:v>32.318627232867378</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>32.318627232867378</c:v>
+                  <c:v>32.106356058496992</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>32.106356058496992</c:v>
+                  <c:v>31.900834707117916</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>31.900834707117916</c:v>
+                  <c:v>31.702118334751315</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>31.702118334751315</c:v>
+                  <c:v>31.51025911628194</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>31.51025911628194</c:v>
+                  <c:v>31.32530653259537</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>31.32530653259537</c:v>
+                  <c:v>31.147307648253189</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>31.147307648253189</c:v>
+                  <c:v>30.976307379561167</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>30.976307379561167</c:v>
+                  <c:v>30.812348752906136</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>30.812348752906136</c:v>
+                  <c:v>30.655473153253393</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>30.655473153253393</c:v>
+                  <c:v>30.505720562708571</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>30.505720562708571</c:v>
+                  <c:v>30.363129789056064</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>30.363129789056064</c:v>
+                  <c:v>30.227738684190264</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>30.227738684190264</c:v>
+                  <c:v>30.099584352356466</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>30.099584352356466</c:v>
+                  <c:v>29.978703348115335</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>29.978703348115335</c:v>
+                  <c:v>29.865131863938416</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>29.865131863938416</c:v>
+                  <c:v>29.758905907332515</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>29.758905907332515</c:v>
+                  <c:v>29.660061467377961</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>29.660061467377961</c:v>
+                  <c:v>29.568634670549915</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>29.568634670549915</c:v>
+                  <c:v>29.484661925673162</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>29.484661925673162</c:v>
+                  <c:v>29.408180057839242</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>29.408180057839242</c:v>
+                  <c:v>29.339226431090612</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>29.339226431090612</c:v>
+                  <c:v>29.277839059649718</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>29.277839059649718</c:v>
+                  <c:v>29.224056707441726</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>29.224056707441726</c:v>
+                  <c:v>29.177918975628096</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>29.177918975628096</c:v>
+                  <c:v>29.139466377834637</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>29.139466377834637</c:v>
+                  <c:v>29.10874040272196</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>29.10874040272196</c:v>
+                  <c:v>29.085783563508805</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>29.085783563508805</c:v>
+                  <c:v>29.070639434019597</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>29.070639434019597</c:v>
+                  <c:v>29.063352670786951</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>29.063352670786951</c:v>
+                  <c:v>29.063969020698153</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>29.063969020698153</c:v>
+                  <c:v>29.072535313631803</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>29.072535313631803</c:v>
+                  <c:v>29.089099439487494</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>29.089099439487494</c:v>
+                  <c:v>29.113710308967626</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>29.113710308967626</c:v>
+                  <c:v>29.146417797426821</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>29.146417797426821</c:v>
+                  <c:v>29.187272671061237</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>29.187272671061237</c:v>
+                  <c:v>29.236326494667832</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>29.236326494667832</c:v>
+                  <c:v>29.293631520162936</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>29.293631520162936</c:v>
+                  <c:v>29.35924055501086</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>29.35924055501086</c:v>
+                  <c:v>29.433206809677408</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>29.433206809677408</c:v>
+                  <c:v>29.515583723190851</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>29.515583723190851</c:v>
+                  <c:v>29.606424765864947</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>29.606424765864947</c:v>
+                  <c:v>29.705783218215721</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>29.705783218215721</c:v>
+                  <c:v>29.813711925087357</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>29.813711925087357</c:v>
+                  <c:v>29.930263023993241</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>29.930263023993241</c:v>
+                  <c:v>30.055487646677502</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>30.055487646677502</c:v>
+                  <c:v>30.189435592911448</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>30.189435592911448</c:v>
+                  <c:v>30.332154975559458</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>30.332154975559458</c:v>
+                  <c:v>30.48369183598151</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>30.48369183598151</c:v>
+                  <c:v>30.644089728886399</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>30.644089728886399</c:v>
+                  <c:v>30.813389275812121</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>30.813389275812121</c:v>
+                  <c:v>30.991627686489636</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>30.991627686489636</c:v>
+                  <c:v>31.178838247445249</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>31.178838247445249</c:v>
+                  <c:v>31.375049777316406</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>31.375049777316406</c:v>
+                  <c:v>31.580286048498117</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>31.580286048498117</c:v>
+                  <c:v>31.79456517490372</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>31.79456517490372</c:v>
+                  <c:v>32.017898965816585</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>32.017898965816585</c:v>
+                  <c:v>32.250292246029517</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>32.250292246029517</c:v>
+                  <c:v>32.491742142718309</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>32.491742142718309</c:v>
+                  <c:v>32.74223733977599</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>32.74223733977599</c:v>
+                  <c:v>33.001757300645934</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>33.001757300645934</c:v>
+                  <c:v>33.270271461036188</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>33.270271461036188</c:v>
+                  <c:v>33.547738393274649</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>33.547738393274649</c:v>
+                  <c:v>33.834104944474575</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>33.834104944474575</c:v>
+                  <c:v>34.129305351122909</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>34.129305351122909</c:v>
+                  <c:v>34.433260333178055</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>34.433260333178055</c:v>
+                  <c:v>34.745876171268051</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>34.745876171268051</c:v>
+                  <c:v>35.067043771112083</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>35.067043771112083</c:v>
+                  <c:v>35.396637719844492</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>35.396637719844492</c:v>
+                  <c:v>35.734515339497399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1972,729 +2039,729 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Zadanie 83 Wilki i zające'!$C$2:$C$241</c:f>
+              <c:f>'Zadanie 83 Wilki i zające'!$C$3:$C$242</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="240"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.5</c:v>
+                  <c:v>101.00250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101.00250000000001</c:v>
+                  <c:v>101.50713374062501</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101.50713374062501</c:v>
+                  <c:v>102.01352536001309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.01352536001309</c:v>
+                  <c:v>102.52128925353165</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.52128925353165</c:v>
+                  <c:v>103.03002994989995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103.03002994989995</c:v>
+                  <c:v>103.53934200544113</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103.53934200544113</c:v>
+                  <c:v>104.04880991827127</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.04880991827127</c:v>
+                  <c:v>104.55800806431941</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104.55800806431941</c:v>
+                  <c:v>105.06650065715633</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105.06650065715633</c:v>
+                  <c:v>105.57384173369411</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105.57384173369411</c:v>
+                  <c:v>106.07957516789915</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106.07957516789915</c:v>
+                  <c:v>106.58323471473918</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>106.58323471473918</c:v>
+                  <c:v>107.08434408665848</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107.08434408665848</c:v>
+                  <c:v>107.58241706494287</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107.58241706494287</c:v>
+                  <c:v>108.07695764839707</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108.07695764839707</c:v>
+                  <c:v>108.56746024180883</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108.56746024180883</c:v>
+                  <c:v>109.05340988671675</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>109.05340988671675</c:v>
+                  <c:v>109.53428253702862</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>109.53428253702862</c:v>
+                  <c:v>110.0095453820537</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110.0095453820537</c:v>
+                  <c:v>110.47865721951331</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110.47865721951331</c:v>
+                  <c:v>110.94106888107729</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110.94106888107729</c:v>
+                  <c:v>111.39622371293696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111.39622371293696</c:v>
+                  <c:v>111.84355811386646</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111.84355811386646</c:v>
+                  <c:v>112.28250213314091</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>112.28250213314091</c:v>
+                  <c:v>112.71248013056952</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112.71248013056952</c:v>
+                  <c:v>113.13291150076238</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>113.13291150076238</c:v>
+                  <c:v>113.54321146357861</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>113.54321146357861</c:v>
+                  <c:v>113.94279192249843</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>113.94279192249843</c:v>
+                  <c:v>114.33106239242078</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>114.33106239242078</c:v>
+                  <c:v>114.70743099810858</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>114.70743099810858</c:v>
+                  <c:v>115.07130554418464</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115.07130554418464</c:v>
+                  <c:v>115.42209465721973</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115.42209465721973</c:v>
+                  <c:v>115.75920900005036</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>115.75920900005036</c:v>
+                  <c:v>116.08206255801601</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116.08206255801601</c:v>
+                  <c:v>116.39007399631247</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>116.39007399631247</c:v>
+                  <c:v>116.68266808712221</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>116.68266808712221</c:v>
+                  <c:v>116.95927720460118</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>116.95927720460118</c:v>
+                  <c:v>117.21934288518014</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>117.21934288518014</c:v>
+                  <c:v>117.46231744997529</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>117.46231744997529</c:v>
+                  <c:v>117.68766568540372</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>117.68766568540372</c:v>
+                  <c:v>117.8948665773667</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>117.8948665773667</c:v>
+                  <c:v>118.08341509360282</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>118.08341509360282</c:v>
+                  <c:v>118.25282400802986</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>118.25282400802986</c:v>
+                  <c:v>118.40262576009599</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>118.40262576009599</c:v>
+                  <c:v>118.53237434135485</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>118.53237434135485</c:v>
+                  <c:v>118.64164720067517</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>118.64164720067517</c:v>
+                  <c:v>118.73004715870289</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>118.73004715870289</c:v>
+                  <c:v>118.79720432142493</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>118.79720432142493</c:v>
+                  <c:v>118.8427779819485</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>118.8427779819485</c:v>
+                  <c:v>118.86645849892307</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>118.86645849892307</c:v>
+                  <c:v>118.8679691394059</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>118.8679691394059</c:v>
+                  <c:v>118.84706787341992</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>118.84706787341992</c:v>
+                  <c:v>118.80354910699003</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>118.80354910699003</c:v>
+                  <c:v>118.73724534008278</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>118.73724534008278</c:v>
+                  <c:v>118.64802873562982</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>118.64802873562982</c:v>
+                  <c:v>118.53581258569993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>118.53581258569993</c:v>
+                  <c:v>118.40055266090948</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>118.40055266090948</c:v>
+                  <c:v>118.24224842933859</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>118.24224842933859</c:v>
+                  <c:v>118.06094413155802</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>118.06094413155802</c:v>
+                  <c:v>117.85672969887776</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117.85672969887776</c:v>
+                  <c:v>117.62974150260706</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>117.62974150260706</c:v>
+                  <c:v>117.38016292296936</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>117.38016292296936</c:v>
+                  <c:v>117.10822472734354</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>117.10822472734354</c:v>
+                  <c:v>116.81420524870146</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>116.81420524870146</c:v>
+                  <c:v>116.49843035647397</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>116.49843035647397</c:v>
+                  <c:v>116.16127321359269</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>116.16127321359269</c:v>
+                  <c:v>115.80315381510938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>115.80315381510938</c:v>
+                  <c:v>115.42453830557203</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>115.42453830557203</c:v>
+                  <c:v>115.02593807421573</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>115.02593807421573</c:v>
+                  <c:v>114.60790862898477</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>114.60790862898477</c:v>
+                  <c:v>114.17104825241455</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>114.17104825241455</c:v>
+                  <c:v>113.71599644443936</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>113.71599644443936</c:v>
+                  <c:v>113.24343215922677</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>113.24343215922677</c:v>
+                  <c:v>112.75407184514015</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>112.75407184514015</c:v>
+                  <c:v>112.24866729886649</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>112.24866729886649</c:v>
+                  <c:v>111.72800334658903</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>111.72800334658903</c:v>
+                  <c:v>111.19289536679997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111.19289536679997</c:v>
+                  <c:v>110.64418667091449</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>110.64418667091449</c:v>
+                  <c:v>110.08274575923323</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>110.08274575923323</c:v>
+                  <c:v>109.5094634709875</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>109.5094634709875</c:v>
+                  <c:v>108.92525004816778</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>108.92525004816778</c:v>
+                  <c:v>108.33103213356821</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>108.33103213356821</c:v>
+                  <c:v>107.72774972396523</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>107.72774972396523</c:v>
+                  <c:v>107.11635309958208</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>107.11635309958208</c:v>
+                  <c:v>106.49779975096995</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>106.49779975096995</c:v>
+                  <c:v>105.87305132416405</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>105.87305132416405</c:v>
+                  <c:v>105.2430706044573</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>105.2430706044573</c:v>
+                  <c:v>104.60881855838582</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>104.60881855838582</c:v>
+                  <c:v>103.97125145255654</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>103.97125145255654</c:v>
+                  <c:v>103.33131806678647</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>103.33131806678647</c:v>
+                  <c:v>102.68995701768783</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>102.68995701768783</c:v>
+                  <c:v>102.04809420734993</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>102.04809420734993</c:v>
+                  <c:v>101.40664041016133</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>101.40664041016133</c:v>
+                  <c:v>100.76648900911583</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>100.76648900911583</c:v>
+                  <c:v>100.12851389117921</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>100.12851389117921</c:v>
+                  <c:v>99.493567509489907</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>99.493567509489907</c:v>
+                  <c:v>98.862479118354088</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98.862479118354088</c:v>
+                  <c:v>98.23605318519914</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>98.23605318519914</c:v>
+                  <c:v>97.615067981896175</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>97.615067981896175</c:v>
+                  <c:v>97.00027435617173</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>97.00027435617173</c:v>
+                  <c:v>96.392394682224435</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>96.392394682224435</c:v>
+                  <c:v>95.792121988159209</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>95.792121988159209</c:v>
+                  <c:v>95.200119256464433</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>95.200119256464433</c:v>
+                  <c:v>94.617018892499374</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>94.617018892499374</c:v>
+                  <c:v>94.04342235483611</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>94.04342235483611</c:v>
+                  <c:v>93.479899940319797</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>93.479899940319797</c:v>
+                  <c:v>92.926990715874894</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>92.926990715874894</c:v>
+                  <c:v>92.385202588393383</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>92.385202588393383</c:v>
+                  <c:v>91.855012503492375</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>91.855012503492375</c:v>
+                  <c:v>91.336866763517094</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>91.336866763517094</c:v>
+                  <c:v>90.831181454886249</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>90.831181454886249</c:v>
+                  <c:v>90.338342974721968</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>90.338342974721968</c:v>
+                  <c:v>89.858708646666187</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>89.858708646666187</c:v>
+                  <c:v>89.392607415850932</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>89.392607415850932</c:v>
+                  <c:v>88.9403406131499</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>88.9403406131499</c:v>
+                  <c:v>88.502182779082403</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>88.502182779082403</c:v>
+                  <c:v>88.078382538057028</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>88.078382538057028</c:v>
+                  <c:v>87.669163514020468</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>87.669163514020468</c:v>
+                  <c:v>87.274725279005736</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>87.274725279005736</c:v>
+                  <c:v>86.895244326543278</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>86.895244326543278</c:v>
+                  <c:v>86.530875062398835</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>86.530875062398835</c:v>
+                  <c:v>86.181750805623466</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>86.181750805623466</c:v>
+                  <c:v>85.847984793436538</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>85.847984793436538</c:v>
+                  <c:v>85.529671184002794</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>85.529671184002794</c:v>
+                  <c:v>85.226886051704668</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>85.226886051704668</c:v>
+                  <c:v>84.939688370043456</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>84.939688370043456</c:v>
+                  <c:v>84.668120977822852</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>84.668120977822852</c:v>
+                  <c:v>84.412211524773056</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>84.412211524773056</c:v>
+                  <c:v>84.171973393256209</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>84.171973393256209</c:v>
+                  <c:v>83.947406593155236</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>83.947406593155236</c:v>
+                  <c:v>83.738498627483025</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>83.738498627483025</c:v>
+                  <c:v>83.545225326657388</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>83.545225326657388</c:v>
+                  <c:v>83.367551649767634</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>83.367551649767634</c:v>
+                  <c:v>83.205432451510404</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>83.205432451510404</c:v>
+                  <c:v>83.058813213795688</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>83.058813213795688</c:v>
+                  <c:v>82.927630741318595</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>82.927630741318595</c:v>
+                  <c:v>82.811813820659211</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>82.811813820659211</c:v>
+                  <c:v>82.711283842712589</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>82.711283842712589</c:v>
+                  <c:v>82.625955388464504</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>82.625955388464504</c:v>
+                  <c:v>82.555736778317055</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>82.555736778317055</c:v>
+                  <c:v>82.500530585333422</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>82.500530585333422</c:v>
+                  <c:v>82.460234112913795</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>82.460234112913795</c:v>
+                  <c:v>82.434739837536469</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>82.434739837536469</c:v>
+                  <c:v>82.423935817301128</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>82.423935817301128</c:v>
+                  <c:v>82.427706067096267</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>82.427706067096267</c:v>
+                  <c:v>82.445930901281727</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>82.445930901281727</c:v>
+                  <c:v>82.478487244831229</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>82.478487244831229</c:v>
+                  <c:v>82.525248913920777</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>82.525248913920777</c:v>
+                  <c:v>82.586086866977354</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>82.586086866977354</c:v>
+                  <c:v>82.660869427220661</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>82.660869427220661</c:v>
+                  <c:v>82.749462477739186</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>82.749462477739186</c:v>
+                  <c:v>82.851729630142387</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>82.851729630142387</c:v>
+                  <c:v>82.967532367824035</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>82.967532367824035</c:v>
+                  <c:v>83.096730164858897</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>83.096730164858897</c:v>
+                  <c:v>83.239180581536715</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>83.239180581536715</c:v>
+                  <c:v>83.394739337515162</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>83.394739337515162</c:v>
+                  <c:v>83.563260363547499</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>83.563260363547499</c:v>
+                  <c:v>83.744595832711582</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>83.744595832711582</c:v>
+                  <c:v>83.938596172036313</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>83.938596172036313</c:v>
+                  <c:v>84.145110055388784</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>84.145110055388784</c:v>
+                  <c:v>84.363984378452102</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>84.363984378452102</c:v>
+                  <c:v>84.595064216589691</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>84.595064216589691</c:v>
+                  <c:v>84.838192766357849</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>84.838192766357849</c:v>
+                  <c:v>85.093211271394509</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>85.093211271394509</c:v>
+                  <c:v>85.359958933378948</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>85.359958933378948</c:v>
+                  <c:v>85.638272808725333</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>85.638272808725333</c:v>
+                  <c:v>85.927987691641505</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>85.927987691641505</c:v>
+                  <c:v>86.228935984155825</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>86.228935984155825</c:v>
+                  <c:v>86.54094755368655</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>86.54094755368655</c:v>
+                  <c:v>86.863849578702997</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>86.863849578702997</c:v>
+                  <c:v>87.19746638300407</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>87.19746638300407</c:v>
+                  <c:v>87.541619259118363</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>87.541619259118363</c:v>
+                  <c:v>87.896126281311439</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>87.896126281311439</c:v>
+                  <c:v>88.260802108669481</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>88.260802108669481</c:v>
+                  <c:v>88.635457778715349</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>88.635457778715349</c:v>
+                  <c:v>89.019900492002066</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>89.019900492002066</c:v>
+                  <c:v>89.413933388121464</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>89.413933388121464</c:v>
+                  <c:v>89.817355313560867</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>89.817355313560867</c:v>
+                  <c:v>90.229960581839521</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>90.229960581839521</c:v>
+                  <c:v>90.651538726358453</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>90.651538726358453</c:v>
+                  <c:v>91.081874246402691</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>91.081874246402691</c:v>
+                  <c:v>91.520746346743735</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>91.520746346743735</c:v>
+                  <c:v>91.9679286713029</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>91.9679286713029</c:v>
+                  <c:v>92.423189031352265</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>92.423189031352265</c:v>
+                  <c:v>92.886289128750462</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>92.886289128750462</c:v>
+                  <c:v>93.356984274734444</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>93.356984274734444</c:v>
+                  <c:v>93.835023104817068</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>93.835023104817068</c:v>
+                  <c:v>94.32014729037256</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>94.32014729037256</c:v>
+                  <c:v>94.812091247529267</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>94.812091247529267</c:v>
+                  <c:v>95.310581844030111</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>95.310581844030111</c:v>
+                  <c:v>95.815338104767378</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>95.815338104767378</c:v>
+                  <c:v>96.326070916749089</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>96.326070916749089</c:v>
+                  <c:v>96.842482734309584</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>96.842482734309584</c:v>
+                  <c:v>97.364267285437307</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>97.364267285437307</c:v>
+                  <c:v>97.891109280158119</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>97.891109280158119</c:v>
+                  <c:v>98.422684121982229</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>98.422684121982229</c:v>
+                  <c:v>98.958657623498937</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>98.958657623498937</c:v>
+                  <c:v>99.498685727282691</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>99.498685727282691</c:v>
+                  <c:v>100.04241423336001</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>100.04241423336001</c:v>
+                  <c:v>100.58947853457666</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>100.58947853457666</c:v>
+                  <c:v>101.13950336129963</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>101.13950336129963</c:v>
+                  <c:v>101.69210253698834</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>101.69210253698834</c:v>
+                  <c:v>102.24687874627361</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>102.24687874627361</c:v>
+                  <c:v>102.8034233172915</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>102.8034233172915</c:v>
+                  <c:v>103.36131602013158</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>103.36131602013158</c:v>
+                  <c:v>103.92012488337456</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>103.92012488337456</c:v>
+                  <c:v>104.47940603081355</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>104.47940603081355</c:v>
+                  <c:v>105.03870354057375</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>105.03870354057375</c:v>
+                  <c:v>105.59754932896813</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>105.59754932896813</c:v>
+                  <c:v>106.15546306155017</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>106.15546306155017</c:v>
+                  <c:v>106.71195209394753</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>106.71195209394753</c:v>
+                  <c:v>107.26651144518246</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>107.26651144518246</c:v>
+                  <c:v>107.81862380630368</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>107.81862380630368</c:v>
+                  <c:v>108.3677595872695</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>108.3677595872695</c:v>
+                  <c:v>108.91337700513097</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>108.91337700513097</c:v>
+                  <c:v>109.45492221666576</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>109.45492221666576</c:v>
+                  <c:v>109.9918294987055</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>109.9918294987055</c:v>
+                  <c:v>110.52352147947958</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>110.52352147947958</c:v>
+                  <c:v>111.04940942436521</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>111.04940942436521</c:v>
+                  <c:v>111.56889357948248</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>111.56889357948248</c:v>
+                  <c:v>112.08136357660399</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>112.08136357660399</c:v>
+                  <c:v>112.58619890285598</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>112.58619890285598</c:v>
+                  <c:v>113.08276943866967</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>113.08276943866967</c:v>
+                  <c:v>113.57043606739553</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>113.57043606739553</c:v>
+                  <c:v>114.04855135991293</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>114.04855135991293</c:v>
+                  <c:v>114.51646033745314</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>114.51646033745314</c:v>
+                  <c:v>114.97350131569844</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>114.97350131569844</c:v>
+                  <c:v>115.41900683302214</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>115.41900683302214</c:v>
+                  <c:v>115.85230466548899</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>115.85230466548899</c:v>
+                  <c:v>116.27271893094003</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>116.27271893094003</c:v>
+                  <c:v>116.67957128413627</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>116.67957128413627</c:v>
+                  <c:v>117.07218220452873</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>117.07218220452873</c:v>
+                  <c:v>117.44987237775565</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>117.44987237775565</c:v>
+                  <c:v>117.81196417143869</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>117.81196417143869</c:v>
+                  <c:v>118.15778320525618</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>118.15778320525618</c:v>
+                  <c:v>118.4866600146124</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>118.4866600146124</c:v>
+                  <c:v>118.79793180649722</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>118.79793180649722</c:v>
+                  <c:v>119.09094430533915</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>119.09094430533915</c:v>
+                  <c:v>119.3650536858008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6115,13 +6182,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6195,16 +6262,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13031,10 +13098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE9F6918-147A-471C-A421-57A289FEDAB3}">
-  <dimension ref="A1:N481"/>
+  <dimension ref="A1:N482"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13093,93 +13160,82 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2">
         <v>30</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
         <v>100</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="2">
-        <f>MIN(B2:B481)</f>
-        <v>28.051923556226487</v>
-      </c>
-      <c r="G2" s="2">
-        <f>MIN(C2:C481)</f>
-        <v>80.712488524805664</v>
-      </c>
-      <c r="H2" s="2">
-        <f>MAX(B2:B481)</f>
-        <v>54.14940435427394</v>
-      </c>
-      <c r="I2" s="2">
-        <f>MAX(C2:C481)</f>
-        <v>123.32067103148853</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="L2">
-        <v>0.02</v>
-      </c>
-      <c r="M2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="N2">
-        <v>0.05</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>B2+$M$2*B2*C2-$N$2*B2</f>
+        <f>B2+$M$3*B2*C2-$N$3*B2</f>
         <v>30</v>
       </c>
       <c r="C3" s="2">
-        <f>C2+$L$2*C2-$M$2*B2*C2</f>
+        <f>C2+$L$3*C2-$M$3*B2*C2</f>
         <v>100.5</v>
       </c>
-      <c r="D3" t="str">
-        <f>IF(B3&lt;B2,"Tak","Nie")</f>
-        <v>Nie</v>
-      </c>
-      <c r="E3" t="str">
-        <f>IF(C3&lt;C2,"Tak","Nie")</f>
-        <v>Nie</v>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2">
+        <f>MIN(B3:B482)</f>
+        <v>28.051923556226487</v>
+      </c>
+      <c r="G3" s="2">
+        <f>MIN(C3:C482)</f>
+        <v>80.712488524805664</v>
+      </c>
+      <c r="H3" s="2">
+        <f>MAX(B3:B482)</f>
+        <v>54.14940435427394</v>
+      </c>
+      <c r="I3" s="2">
+        <f>MAX(C3:C482)</f>
+        <v>123.32067103148853</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="L3">
+        <v>0.02</v>
+      </c>
+      <c r="M3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="N3">
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B67" si="0">B3+$M$2*B3*C3-$N$2*B3</f>
+        <f t="shared" ref="B4:B67" si="0">B3+$M$3*B3*C3-$N$3*B3</f>
         <v>30.0075</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C4:C67" si="1">C3+$L$2*C3-$M$2*B3*C3</f>
+        <f t="shared" ref="C4:C67" si="1">C3+$L$3*C3-$M$3*B3*C3</f>
         <v>101.00250000000001</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D4:D67" si="2">IF(B4&lt;B3,"Tak","Nie")</f>
+        <f>IF(B4&lt;B3,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ref="E4:E67" si="3">IF(C4&lt;C3,"Tak","Nie")</f>
+        <f>IF(C4&lt;C3,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="0"/>
@@ -13190,17 +13246,17 @@
         <v>101.50713374062501</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D5:D68" si="2">IF(B5&lt;B4,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E5:E68" si="3">IF(C5&lt;C4,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <f t="shared" si="0"/>
@@ -13221,7 +13277,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2">
         <f t="shared" si="0"/>
@@ -13242,7 +13298,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <f t="shared" si="0"/>
@@ -13263,7 +13319,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2">
         <f t="shared" si="0"/>
@@ -13284,7 +13340,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <f t="shared" si="0"/>
@@ -13305,7 +13361,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <f t="shared" si="0"/>
@@ -13326,7 +13382,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <f t="shared" si="0"/>
@@ -13347,7 +13403,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="2">
         <f t="shared" si="0"/>
@@ -13368,7 +13424,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="2">
         <f t="shared" si="0"/>
@@ -13389,7 +13445,7 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2">
         <f t="shared" si="0"/>
@@ -13410,7 +13466,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <f t="shared" si="0"/>
@@ -13431,7 +13487,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2">
         <f t="shared" si="0"/>
@@ -13452,7 +13508,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="2">
         <f t="shared" si="0"/>
@@ -13473,7 +13529,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2">
         <f t="shared" si="0"/>
@@ -13494,7 +13550,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2">
         <f t="shared" si="0"/>
@@ -13515,7 +13571,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2">
         <f t="shared" si="0"/>
@@ -13536,7 +13592,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2">
         <f t="shared" si="0"/>
@@ -13557,7 +13613,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2">
         <f t="shared" si="0"/>
@@ -13578,7 +13634,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2">
         <f t="shared" si="0"/>
@@ -13599,7 +13655,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2">
         <f t="shared" si="0"/>
@@ -13620,7 +13676,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2">
         <f t="shared" si="0"/>
@@ -13641,7 +13697,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2">
         <f t="shared" si="0"/>
@@ -13662,7 +13718,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2">
         <f t="shared" si="0"/>
@@ -13683,7 +13739,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2">
         <f t="shared" si="0"/>
@@ -13704,7 +13760,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2">
         <f t="shared" si="0"/>
@@ -13725,7 +13781,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2">
         <f t="shared" si="0"/>
@@ -13746,7 +13802,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2">
         <f t="shared" si="0"/>
@@ -13767,7 +13823,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2">
         <f t="shared" si="0"/>
@@ -13788,7 +13844,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2">
         <f t="shared" si="0"/>
@@ -13809,7 +13865,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2">
         <f t="shared" si="0"/>
@@ -13830,7 +13886,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2">
         <f t="shared" si="0"/>
@@ -13851,7 +13907,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2">
         <f t="shared" si="0"/>
@@ -13872,7 +13928,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2">
         <f t="shared" si="0"/>
@@ -13893,7 +13949,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2">
         <f t="shared" si="0"/>
@@ -13914,7 +13970,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="2">
         <f t="shared" si="0"/>
@@ -13935,7 +13991,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2">
         <f t="shared" si="0"/>
@@ -13956,7 +14012,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="2">
         <f t="shared" si="0"/>
@@ -13977,7 +14033,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2">
         <f t="shared" si="0"/>
@@ -13998,7 +14054,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2">
         <f t="shared" si="0"/>
@@ -14019,7 +14075,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2">
         <f t="shared" si="0"/>
@@ -14040,7 +14096,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="2">
         <f t="shared" si="0"/>
@@ -14061,7 +14117,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2">
         <f t="shared" si="0"/>
@@ -14082,7 +14138,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <f t="shared" si="0"/>
@@ -14103,7 +14159,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="2">
         <f t="shared" si="0"/>
@@ -14124,7 +14180,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="2">
         <f t="shared" si="0"/>
@@ -14145,7 +14201,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="2">
         <f t="shared" si="0"/>
@@ -14166,7 +14222,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="2">
         <f t="shared" si="0"/>
@@ -14187,7 +14243,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="2">
         <f t="shared" si="0"/>
@@ -14208,7 +14264,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="2">
         <f t="shared" si="0"/>
@@ -14229,7 +14285,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2">
         <f t="shared" si="0"/>
@@ -14250,7 +14306,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <f t="shared" si="0"/>
@@ -14271,7 +14327,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
         <f t="shared" si="0"/>
@@ -14292,7 +14348,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
         <f t="shared" si="0"/>
@@ -14313,7 +14369,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
         <f t="shared" si="0"/>
@@ -14334,7 +14390,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
         <f t="shared" si="0"/>
@@ -14355,7 +14411,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
         <f t="shared" si="0"/>
@@ -14376,7 +14432,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
         <f t="shared" si="0"/>
@@ -14397,7 +14453,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
         <f t="shared" si="0"/>
@@ -14418,7 +14474,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
         <f t="shared" si="0"/>
@@ -14439,7 +14495,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
         <f t="shared" si="0"/>
@@ -14460,7 +14516,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
         <f t="shared" si="0"/>
@@ -14481,7 +14537,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
         <f t="shared" si="0"/>
@@ -14502,28 +14558,28 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" ref="B68:B131" si="4">B67+$M$2*B67*C67-$N$2*B67</f>
+        <f t="shared" ref="B68:B131" si="4">B67+$M$3*B67*C67-$N$3*B67</f>
         <v>45.788183443323739</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" ref="C68:C131" si="5">C67+$L$2*C67-$M$2*B67*C67</f>
+        <f t="shared" ref="C68:C131" si="5">C67+$L$3*C67-$M$3*B67*C67</f>
         <v>116.49843035647397</v>
       </c>
       <c r="D68" t="str">
-        <f t="shared" ref="D68:D131" si="6">IF(B68&lt;B67,"Tak","Nie")</f>
+        <f t="shared" si="2"/>
         <v>Nie</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ref="E68:E131" si="7">IF(C68&lt;C67,"Tak","Nie")</f>
+        <f t="shared" si="3"/>
         <v>Tak</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <f t="shared" si="4"/>
@@ -14534,17 +14590,17 @@
         <v>116.16127321359269</v>
       </c>
       <c r="D69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D69:D132" si="6">IF(B69&lt;B68,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E69:E132" si="7">IF(C69&lt;C68,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
         <f t="shared" si="4"/>
@@ -14565,7 +14621,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
         <f t="shared" si="4"/>
@@ -14586,7 +14642,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <f t="shared" si="4"/>
@@ -14607,7 +14663,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
         <f t="shared" si="4"/>
@@ -14628,7 +14684,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
         <f t="shared" si="4"/>
@@ -14649,7 +14705,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
         <f t="shared" si="4"/>
@@ -14670,7 +14726,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
         <f t="shared" si="4"/>
@@ -14691,7 +14747,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
         <f t="shared" si="4"/>
@@ -14712,7 +14768,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
         <f t="shared" si="4"/>
@@ -14733,7 +14789,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
         <f t="shared" si="4"/>
@@ -14754,7 +14810,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
         <f t="shared" si="4"/>
@@ -14775,7 +14831,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
         <f t="shared" si="4"/>
@@ -14796,7 +14852,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
         <f t="shared" si="4"/>
@@ -14817,7 +14873,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
         <f t="shared" si="4"/>
@@ -14838,7 +14894,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
         <f t="shared" si="4"/>
@@ -14859,7 +14915,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
         <f t="shared" si="4"/>
@@ -14880,7 +14936,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
         <f t="shared" si="4"/>
@@ -14901,7 +14957,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
         <f t="shared" si="4"/>
@@ -14922,7 +14978,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
         <f t="shared" si="4"/>
@@ -14943,7 +14999,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
         <f t="shared" si="4"/>
@@ -14964,7 +15020,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
         <f t="shared" si="4"/>
@@ -14985,7 +15041,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
         <f t="shared" si="4"/>
@@ -15006,7 +15062,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
         <f t="shared" si="4"/>
@@ -15027,7 +15083,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
         <f t="shared" si="4"/>
@@ -15048,7 +15104,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
         <f t="shared" si="4"/>
@@ -15069,7 +15125,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
         <f t="shared" si="4"/>
@@ -15090,7 +15146,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
         <f t="shared" si="4"/>
@@ -15111,7 +15167,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
         <f t="shared" si="4"/>
@@ -15132,7 +15188,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <f t="shared" si="4"/>
@@ -15153,7 +15209,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
         <f t="shared" si="4"/>
@@ -15174,7 +15230,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
         <f t="shared" si="4"/>
@@ -15195,7 +15251,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
         <f t="shared" si="4"/>
@@ -15216,7 +15272,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <f t="shared" si="4"/>
@@ -15237,7 +15293,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
         <f t="shared" si="4"/>
@@ -15258,7 +15314,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
         <f t="shared" si="4"/>
@@ -15279,7 +15335,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
         <f t="shared" si="4"/>
@@ -15300,7 +15356,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <f t="shared" si="4"/>
@@ -15321,7 +15377,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
         <f t="shared" si="4"/>
@@ -15342,7 +15398,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
         <f t="shared" si="4"/>
@@ -15363,7 +15419,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
         <f t="shared" si="4"/>
@@ -15384,7 +15440,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <f t="shared" si="4"/>
@@ -15405,7 +15461,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
         <f t="shared" si="4"/>
@@ -15426,7 +15482,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
         <f t="shared" si="4"/>
@@ -15447,7 +15503,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
         <f t="shared" si="4"/>
@@ -15468,7 +15524,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
         <f t="shared" si="4"/>
@@ -15489,7 +15545,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
         <f t="shared" si="4"/>
@@ -15510,7 +15566,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
         <f t="shared" si="4"/>
@@ -15531,7 +15587,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
         <f t="shared" si="4"/>
@@ -15552,7 +15608,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
         <f t="shared" si="4"/>
@@ -15573,7 +15629,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2">
         <f t="shared" si="4"/>
@@ -15594,7 +15650,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="2">
         <f t="shared" si="4"/>
@@ -15615,7 +15671,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="2">
         <f t="shared" si="4"/>
@@ -15636,7 +15692,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="2">
         <f t="shared" si="4"/>
@@ -15657,7 +15713,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="2">
         <f t="shared" si="4"/>
@@ -15678,7 +15734,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="2">
         <f t="shared" si="4"/>
@@ -15699,7 +15755,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="2">
         <f t="shared" si="4"/>
@@ -15720,7 +15776,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="2">
         <f t="shared" si="4"/>
@@ -15741,7 +15797,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="2">
         <f t="shared" si="4"/>
@@ -15762,7 +15818,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="2">
         <f t="shared" si="4"/>
@@ -15783,7 +15839,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="2">
         <f t="shared" si="4"/>
@@ -15804,7 +15860,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="2">
         <f t="shared" si="4"/>
@@ -15825,7 +15881,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="2">
         <f t="shared" si="4"/>
@@ -15846,28 +15902,28 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="2">
-        <f t="shared" ref="B132:B195" si="8">B131+$M$2*B131*C131-$N$2*B131</f>
+        <f t="shared" ref="B132:B195" si="8">B131+$M$3*B131*C131-$N$3*B131</f>
         <v>45.335904364550984</v>
       </c>
       <c r="C132" s="2">
-        <f t="shared" ref="C132:C195" si="9">C131+$L$2*C131-$M$2*B131*C131</f>
+        <f t="shared" ref="C132:C195" si="9">C131+$L$3*C131-$M$3*B131*C131</f>
         <v>84.171973393256209</v>
       </c>
       <c r="D132" t="str">
-        <f t="shared" ref="D132:D195" si="10">IF(B132&lt;B131,"Tak","Nie")</f>
+        <f t="shared" si="6"/>
         <v>Tak</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" ref="E132:E195" si="11">IF(C132&lt;C131,"Tak","Nie")</f>
+        <f t="shared" si="7"/>
         <v>Tak</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="2">
         <f t="shared" si="8"/>
@@ -15878,17 +15934,17 @@
         <v>83.947406593155236</v>
       </c>
       <c r="D133" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D133:D196" si="10">IF(B133&lt;B132,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E133:E196" si="11">IF(C133&lt;C132,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2">
         <f t="shared" si="8"/>
@@ -15909,7 +15965,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2">
         <f t="shared" si="8"/>
@@ -15930,7 +15986,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2">
         <f t="shared" si="8"/>
@@ -15951,7 +16007,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="2">
         <f t="shared" si="8"/>
@@ -15972,7 +16028,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
         <f t="shared" si="8"/>
@@ -15993,7 +16049,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2">
         <f t="shared" si="8"/>
@@ -16014,7 +16070,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2">
         <f t="shared" si="8"/>
@@ -16035,7 +16091,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="2">
         <f t="shared" si="8"/>
@@ -16056,7 +16112,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2">
         <f t="shared" si="8"/>
@@ -16077,7 +16133,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2">
         <f t="shared" si="8"/>
@@ -16098,7 +16154,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="2">
         <f t="shared" si="8"/>
@@ -16119,7 +16175,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="2">
         <f t="shared" si="8"/>
@@ -16140,7 +16196,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="2">
         <f t="shared" si="8"/>
@@ -16161,7 +16217,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="2">
         <f t="shared" si="8"/>
@@ -16182,7 +16238,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="2">
         <f t="shared" si="8"/>
@@ -16203,7 +16259,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2">
         <f t="shared" si="8"/>
@@ -16224,7 +16280,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2">
         <f t="shared" si="8"/>
@@ -16245,7 +16301,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2">
         <f t="shared" si="8"/>
@@ -16266,7 +16322,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2">
         <f t="shared" si="8"/>
@@ -16287,7 +16343,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2">
         <f t="shared" si="8"/>
@@ -16308,7 +16364,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2">
         <f t="shared" si="8"/>
@@ -16329,7 +16385,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="2">
         <f t="shared" si="8"/>
@@ -16350,7 +16406,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="2">
         <f t="shared" si="8"/>
@@ -16371,7 +16427,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="2">
         <f t="shared" si="8"/>
@@ -16392,7 +16448,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="2">
         <f t="shared" si="8"/>
@@ -16413,7 +16469,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="2">
         <f t="shared" si="8"/>
@@ -16434,7 +16490,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="2">
         <f t="shared" si="8"/>
@@ -16455,7 +16511,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="2">
         <f t="shared" si="8"/>
@@ -16476,7 +16532,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="2">
         <f t="shared" si="8"/>
@@ -16497,7 +16553,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="2">
         <f t="shared" si="8"/>
@@ -16518,7 +16574,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="2">
         <f t="shared" si="8"/>
@@ -16539,7 +16595,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="2">
         <f t="shared" si="8"/>
@@ -16560,7 +16616,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2">
         <f t="shared" si="8"/>
@@ -16581,7 +16637,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="2">
         <f t="shared" si="8"/>
@@ -16602,7 +16658,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2">
         <f t="shared" si="8"/>
@@ -16623,7 +16679,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="2">
         <f t="shared" si="8"/>
@@ -16644,7 +16700,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="2">
         <f t="shared" si="8"/>
@@ -16665,7 +16721,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="2">
         <f t="shared" si="8"/>
@@ -16686,7 +16742,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="2">
         <f t="shared" si="8"/>
@@ -16707,7 +16763,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="2">
         <f t="shared" si="8"/>
@@ -16728,7 +16784,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="2">
         <f t="shared" si="8"/>
@@ -16749,7 +16805,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="2">
         <f t="shared" si="8"/>
@@ -16770,7 +16826,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="2">
         <f t="shared" si="8"/>
@@ -16791,7 +16847,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="2">
         <f t="shared" si="8"/>
@@ -16812,7 +16868,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="2">
         <f t="shared" si="8"/>
@@ -16833,7 +16889,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="2">
         <f t="shared" si="8"/>
@@ -16854,7 +16910,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2">
         <f t="shared" si="8"/>
@@ -16875,7 +16931,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="2">
         <f t="shared" si="8"/>
@@ -16896,7 +16952,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="2">
         <f t="shared" si="8"/>
@@ -16917,7 +16973,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="2">
         <f t="shared" si="8"/>
@@ -16938,7 +16994,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="2">
         <f t="shared" si="8"/>
@@ -16959,7 +17015,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="2">
         <f t="shared" si="8"/>
@@ -16980,7 +17036,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="2">
         <f t="shared" si="8"/>
@@ -17001,7 +17057,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="2">
         <f t="shared" si="8"/>
@@ -17022,7 +17078,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="2">
         <f t="shared" si="8"/>
@@ -17043,7 +17099,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2">
         <f t="shared" si="8"/>
@@ -17064,7 +17120,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="2">
         <f t="shared" si="8"/>
@@ -17085,7 +17141,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="2">
         <f t="shared" si="8"/>
@@ -17106,7 +17162,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="2">
         <f t="shared" si="8"/>
@@ -17127,7 +17183,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="2">
         <f t="shared" si="8"/>
@@ -17148,7 +17204,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="2">
         <f t="shared" si="8"/>
@@ -17169,7 +17225,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="2">
         <f t="shared" si="8"/>
@@ -17190,28 +17246,28 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="2">
-        <f t="shared" ref="B196:B259" si="12">B195+$M$2*B195*C195-$N$2*B195</f>
+        <f t="shared" ref="B196:B259" si="12">B195+$M$3*B195*C195-$N$3*B195</f>
         <v>29.224056707441726</v>
       </c>
       <c r="C196" s="2">
-        <f t="shared" ref="C196:C259" si="13">C195+$L$2*C195-$M$2*B195*C195</f>
+        <f t="shared" ref="C196:C259" si="13">C195+$L$3*C195-$M$3*B195*C195</f>
         <v>96.842482734309584</v>
       </c>
       <c r="D196" t="str">
-        <f t="shared" ref="D196:D259" si="14">IF(B196&lt;B195,"Tak","Nie")</f>
+        <f t="shared" si="10"/>
         <v>Tak</v>
       </c>
       <c r="E196" t="str">
-        <f t="shared" ref="E196:E259" si="15">IF(C196&lt;C195,"Tak","Nie")</f>
+        <f t="shared" si="11"/>
         <v>Nie</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="2">
         <f t="shared" si="12"/>
@@ -17222,17 +17278,17 @@
         <v>97.364267285437307</v>
       </c>
       <c r="D197" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="D197:D260" si="14">IF(B197&lt;B196,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
       <c r="E197" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E197:E260" si="15">IF(C197&lt;C196,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="2">
         <f t="shared" si="12"/>
@@ -17253,7 +17309,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="2">
         <f t="shared" si="12"/>
@@ -17274,7 +17330,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="2">
         <f t="shared" si="12"/>
@@ -17295,7 +17351,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="2">
         <f t="shared" si="12"/>
@@ -17316,7 +17372,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="2">
         <f t="shared" si="12"/>
@@ -17337,7 +17393,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="2">
         <f t="shared" si="12"/>
@@ -17358,7 +17414,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="2">
         <f t="shared" si="12"/>
@@ -17379,7 +17435,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="2">
         <f t="shared" si="12"/>
@@ -17400,7 +17456,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="2">
         <f t="shared" si="12"/>
@@ -17421,7 +17477,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="2">
         <f t="shared" si="12"/>
@@ -17442,7 +17498,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="2">
         <f t="shared" si="12"/>
@@ -17463,7 +17519,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="2">
         <f t="shared" si="12"/>
@@ -17484,7 +17540,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="2">
         <f t="shared" si="12"/>
@@ -17505,7 +17561,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="2">
         <f t="shared" si="12"/>
@@ -17526,7 +17582,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="2">
         <f t="shared" si="12"/>
@@ -17547,7 +17603,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="2">
         <f t="shared" si="12"/>
@@ -17568,7 +17624,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="2">
         <f t="shared" si="12"/>
@@ -17589,7 +17645,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="2">
         <f t="shared" si="12"/>
@@ -17610,7 +17666,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="2">
         <f t="shared" si="12"/>
@@ -17631,7 +17687,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="2">
         <f t="shared" si="12"/>
@@ -17652,7 +17708,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="2">
         <f t="shared" si="12"/>
@@ -17673,7 +17729,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="2">
         <f t="shared" si="12"/>
@@ -17694,7 +17750,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="2">
         <f t="shared" si="12"/>
@@ -17715,7 +17771,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="2">
         <f t="shared" si="12"/>
@@ -17736,7 +17792,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="2">
         <f t="shared" si="12"/>
@@ -17757,7 +17813,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="2">
         <f t="shared" si="12"/>
@@ -17778,7 +17834,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="2">
         <f t="shared" si="12"/>
@@ -17799,7 +17855,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="2">
         <f t="shared" si="12"/>
@@ -17820,7 +17876,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="2">
         <f t="shared" si="12"/>
@@ -17841,7 +17897,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="2">
         <f t="shared" si="12"/>
@@ -17862,7 +17918,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="2">
         <f t="shared" si="12"/>
@@ -17883,7 +17939,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="2">
         <f t="shared" si="12"/>
@@ -17904,7 +17960,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2">
         <f t="shared" si="12"/>
@@ -17925,7 +17981,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="2">
         <f t="shared" si="12"/>
@@ -17946,7 +18002,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="2">
         <f t="shared" si="12"/>
@@ -17967,7 +18023,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="2">
         <f t="shared" si="12"/>
@@ -17988,7 +18044,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="2">
         <f t="shared" si="12"/>
@@ -18009,7 +18065,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="2">
         <f t="shared" si="12"/>
@@ -18030,7 +18086,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="2">
         <f t="shared" si="12"/>
@@ -18051,7 +18107,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="2">
         <f t="shared" si="12"/>
@@ -18072,7 +18128,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="2">
         <f t="shared" si="12"/>
@@ -18093,7 +18149,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="2">
         <f t="shared" si="12"/>
@@ -18114,7 +18170,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="2">
         <f t="shared" si="12"/>
@@ -18135,7 +18191,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="2">
         <f t="shared" si="12"/>
@@ -18156,7 +18212,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="2">
         <f t="shared" si="12"/>
@@ -18177,7 +18233,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="2">
         <f t="shared" si="12"/>
@@ -18198,7 +18254,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="2">
         <f t="shared" si="12"/>
@@ -18219,7 +18275,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="2">
         <f t="shared" si="12"/>
@@ -18240,7 +18296,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="2">
         <f t="shared" si="12"/>
@@ -18261,7 +18317,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="2">
         <f t="shared" si="12"/>
@@ -18282,7 +18338,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="2">
         <f t="shared" si="12"/>
@@ -18303,7 +18359,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="2">
         <f t="shared" si="12"/>
@@ -18324,7 +18380,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="2">
         <f t="shared" si="12"/>
@@ -18345,7 +18401,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="2">
         <f t="shared" si="12"/>
@@ -18366,7 +18422,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="2">
         <f t="shared" si="12"/>
@@ -18387,7 +18443,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="2">
         <f t="shared" si="12"/>
@@ -18408,7 +18464,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="2">
         <f t="shared" si="12"/>
@@ -18429,7 +18485,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="2">
         <f t="shared" si="12"/>
@@ -18450,7 +18506,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="2">
         <f t="shared" si="12"/>
@@ -18471,7 +18527,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="2">
         <f t="shared" si="12"/>
@@ -18492,7 +18548,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="2">
         <f t="shared" si="12"/>
@@ -18513,7 +18569,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="2">
         <f t="shared" si="12"/>
@@ -18534,28 +18590,28 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="2">
-        <f t="shared" ref="B260:B323" si="16">B259+$M$2*B259*C259-$N$2*B259</f>
+        <f t="shared" ref="B260:B323" si="16">B259+$M$3*B259*C259-$N$3*B259</f>
         <v>42.944074839983969</v>
       </c>
       <c r="C260" s="2">
-        <f t="shared" ref="C260:C323" si="17">C259+$L$2*C259-$M$2*B259*C259</f>
+        <f t="shared" ref="C260:C323" si="17">C259+$L$3*C259-$M$3*B259*C259</f>
         <v>120.45270836541974</v>
       </c>
       <c r="D260" t="str">
-        <f t="shared" ref="D260:E323" si="18">IF(B260&lt;B259,"Tak","Nie")</f>
+        <f t="shared" si="14"/>
         <v>Nie</v>
       </c>
       <c r="E260" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>Tak</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="2">
         <f t="shared" si="16"/>
@@ -18566,7 +18622,7 @@
         <v>120.27539747136646</v>
       </c>
       <c r="D261" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D261:E324" si="18">IF(B261&lt;B260,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
       <c r="E261" t="str">
@@ -18576,7 +18632,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="2">
         <f t="shared" si="16"/>
@@ -18597,7 +18653,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="2">
         <f t="shared" si="16"/>
@@ -18618,7 +18674,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="2">
         <f t="shared" si="16"/>
@@ -18639,7 +18695,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="2">
         <f t="shared" si="16"/>
@@ -18660,7 +18716,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="2">
         <f t="shared" si="16"/>
@@ -18681,7 +18737,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="2">
         <f t="shared" si="16"/>
@@ -18702,7 +18758,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="2">
         <f t="shared" si="16"/>
@@ -18723,7 +18779,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="2">
         <f t="shared" si="16"/>
@@ -18744,7 +18800,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="2">
         <f t="shared" si="16"/>
@@ -18765,7 +18821,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="2">
         <f t="shared" si="16"/>
@@ -18786,7 +18842,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="2">
         <f t="shared" si="16"/>
@@ -18807,7 +18863,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="2">
         <f t="shared" si="16"/>
@@ -18828,7 +18884,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="2">
         <f t="shared" si="16"/>
@@ -18849,7 +18905,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="2">
         <f t="shared" si="16"/>
@@ -18870,7 +18926,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="2">
         <f t="shared" si="16"/>
@@ -18891,7 +18947,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="2">
         <f t="shared" si="16"/>
@@ -18912,7 +18968,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="2">
         <f t="shared" si="16"/>
@@ -18933,7 +18989,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="2">
         <f t="shared" si="16"/>
@@ -18954,7 +19010,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="2">
         <f t="shared" si="16"/>
@@ -18975,7 +19031,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="2">
         <f t="shared" si="16"/>
@@ -18996,7 +19052,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="2">
         <f t="shared" si="16"/>
@@ -19017,7 +19073,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="2">
         <f t="shared" si="16"/>
@@ -19038,7 +19094,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="2">
         <f t="shared" si="16"/>
@@ -19059,7 +19115,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="2">
         <f t="shared" si="16"/>
@@ -19080,7 +19136,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="2">
         <f t="shared" si="16"/>
@@ -19101,7 +19157,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="2">
         <f t="shared" si="16"/>
@@ -19122,7 +19178,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="2">
         <f t="shared" si="16"/>
@@ -19143,7 +19199,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="2">
         <f t="shared" si="16"/>
@@ -19164,7 +19220,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="2">
         <f t="shared" si="16"/>
@@ -19185,7 +19241,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="2">
         <f t="shared" si="16"/>
@@ -19206,7 +19262,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="2">
         <f t="shared" si="16"/>
@@ -19227,7 +19283,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="2">
         <f t="shared" si="16"/>
@@ -19248,7 +19304,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="2">
         <f t="shared" si="16"/>
@@ -19269,7 +19325,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="2">
         <f t="shared" si="16"/>
@@ -19290,7 +19346,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="2">
         <f t="shared" si="16"/>
@@ -19311,7 +19367,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="2">
         <f t="shared" si="16"/>
@@ -19332,7 +19388,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="2">
         <f t="shared" si="16"/>
@@ -19353,7 +19409,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="2">
         <f t="shared" si="16"/>
@@ -19374,7 +19430,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="2">
         <f t="shared" si="16"/>
@@ -19395,7 +19451,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="2">
         <f t="shared" si="16"/>
@@ -19416,7 +19472,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="2">
         <f t="shared" si="16"/>
@@ -19437,7 +19493,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="2">
         <f t="shared" si="16"/>
@@ -19458,7 +19514,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="2">
         <f t="shared" si="16"/>
@@ -19479,7 +19535,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="2">
         <f t="shared" si="16"/>
@@ -19500,7 +19556,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="2">
         <f t="shared" si="16"/>
@@ -19521,7 +19577,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="2">
         <f t="shared" si="16"/>
@@ -19542,7 +19598,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="2">
         <f t="shared" si="16"/>
@@ -19563,7 +19619,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="2">
         <f t="shared" si="16"/>
@@ -19584,7 +19640,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="2">
         <f t="shared" si="16"/>
@@ -19605,7 +19661,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="2">
         <f t="shared" si="16"/>
@@ -19626,7 +19682,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="2">
         <f t="shared" si="16"/>
@@ -19647,7 +19703,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="2">
         <f t="shared" si="16"/>
@@ -19668,7 +19724,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="2">
         <f t="shared" si="16"/>
@@ -19689,7 +19745,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="2">
         <f t="shared" si="16"/>
@@ -19710,7 +19766,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="2">
         <f t="shared" si="16"/>
@@ -19731,7 +19787,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="2">
         <f t="shared" si="16"/>
@@ -19752,7 +19808,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="2">
         <f t="shared" si="16"/>
@@ -19773,7 +19829,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="2">
         <f t="shared" si="16"/>
@@ -19794,7 +19850,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="2">
         <f t="shared" si="16"/>
@@ -19815,7 +19871,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="2">
         <f t="shared" si="16"/>
@@ -19836,7 +19892,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="2">
         <f t="shared" si="16"/>
@@ -19857,7 +19913,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="2">
         <f t="shared" si="16"/>
@@ -19878,28 +19934,28 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="2">
-        <f t="shared" ref="B324:B387" si="19">B323+$M$2*B323*C323-$N$2*B323</f>
+        <f t="shared" ref="B324:B387" si="19">B323+$M$3*B323*C323-$N$3*B323</f>
         <v>48.78576081574834</v>
       </c>
       <c r="C324" s="2">
-        <f t="shared" ref="C324:C387" si="20">C323+$L$2*C323-$M$2*B323*C323</f>
+        <f t="shared" ref="C324:C387" si="20">C323+$L$3*C323-$M$3*B323*C323</f>
         <v>84.993119160656889</v>
       </c>
       <c r="D324" t="str">
-        <f t="shared" ref="D324:E387" si="21">IF(B324&lt;B323,"Tak","Nie")</f>
+        <f t="shared" si="18"/>
         <v>Tak</v>
       </c>
       <c r="E324" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>Tak</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="2">
         <f t="shared" si="19"/>
@@ -19910,7 +19966,7 @@
         <v>84.61975455269193</v>
       </c>
       <c r="D325" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D325:E388" si="21">IF(B325&lt;B324,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
       <c r="E325" t="str">
@@ -19920,7 +19976,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="2">
         <f t="shared" si="19"/>
@@ -19941,7 +19997,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="2">
         <f t="shared" si="19"/>
@@ -19962,7 +20018,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="2">
         <f t="shared" si="19"/>
@@ -19983,7 +20039,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="2">
         <f t="shared" si="19"/>
@@ -20004,7 +20060,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="2">
         <f t="shared" si="19"/>
@@ -20025,7 +20081,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="2">
         <f t="shared" si="19"/>
@@ -20046,7 +20102,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="2">
         <f t="shared" si="19"/>
@@ -20067,7 +20123,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="2">
         <f t="shared" si="19"/>
@@ -20088,7 +20144,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="2">
         <f t="shared" si="19"/>
@@ -20109,7 +20165,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="2">
         <f t="shared" si="19"/>
@@ -20130,7 +20186,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="2">
         <f t="shared" si="19"/>
@@ -20151,7 +20207,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="2">
         <f t="shared" si="19"/>
@@ -20172,7 +20228,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="2">
         <f t="shared" si="19"/>
@@ -20193,7 +20249,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="2">
         <f t="shared" si="19"/>
@@ -20214,7 +20270,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="2">
         <f t="shared" si="19"/>
@@ -20235,7 +20291,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="2">
         <f t="shared" si="19"/>
@@ -20256,7 +20312,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="2">
         <f t="shared" si="19"/>
@@ -20277,7 +20333,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="2">
         <f t="shared" si="19"/>
@@ -20298,7 +20354,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="2">
         <f t="shared" si="19"/>
@@ -20319,7 +20375,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="2">
         <f t="shared" si="19"/>
@@ -20340,7 +20396,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="2">
         <f t="shared" si="19"/>
@@ -20361,7 +20417,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="2">
         <f t="shared" si="19"/>
@@ -20382,7 +20438,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="2">
         <f t="shared" si="19"/>
@@ -20403,7 +20459,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="2">
         <f t="shared" si="19"/>
@@ -20424,7 +20480,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="2">
         <f t="shared" si="19"/>
@@ -20445,7 +20501,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="2">
         <f t="shared" si="19"/>
@@ -20466,7 +20522,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="2">
         <f t="shared" si="19"/>
@@ -20487,7 +20543,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="2">
         <f t="shared" si="19"/>
@@ -20508,7 +20564,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="2">
         <f t="shared" si="19"/>
@@ -20529,7 +20585,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="2">
         <f t="shared" si="19"/>
@@ -20550,7 +20606,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="2">
         <f t="shared" si="19"/>
@@ -20571,7 +20627,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="2">
         <f t="shared" si="19"/>
@@ -20592,7 +20648,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="2">
         <f t="shared" si="19"/>
@@ -20613,7 +20669,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="2">
         <f t="shared" si="19"/>
@@ -20634,7 +20690,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="2">
         <f t="shared" si="19"/>
@@ -20655,7 +20711,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="2">
         <f t="shared" si="19"/>
@@ -20676,7 +20732,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="2">
         <f t="shared" si="19"/>
@@ -20697,7 +20753,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="2">
         <f t="shared" si="19"/>
@@ -20718,7 +20774,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="2">
         <f t="shared" si="19"/>
@@ -20739,7 +20795,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="2">
         <f t="shared" si="19"/>
@@ -20760,7 +20816,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="2">
         <f t="shared" si="19"/>
@@ -20781,7 +20837,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="2">
         <f t="shared" si="19"/>
@@ -20802,7 +20858,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="2">
         <f t="shared" si="19"/>
@@ -20823,7 +20879,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="2">
         <f t="shared" si="19"/>
@@ -20844,7 +20900,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="2">
         <f t="shared" si="19"/>
@@ -20865,7 +20921,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="2">
         <f t="shared" si="19"/>
@@ -20886,7 +20942,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="2">
         <f t="shared" si="19"/>
@@ -20907,7 +20963,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="2">
         <f t="shared" si="19"/>
@@ -20928,7 +20984,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="2">
         <f t="shared" si="19"/>
@@ -20949,7 +21005,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="2">
         <f t="shared" si="19"/>
@@ -20970,7 +21026,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="2">
         <f t="shared" si="19"/>
@@ -20991,7 +21047,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="2">
         <f t="shared" si="19"/>
@@ -21012,7 +21068,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="2">
         <f t="shared" si="19"/>
@@ -21033,7 +21089,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="2">
         <f t="shared" si="19"/>
@@ -21054,7 +21110,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="2">
         <f t="shared" si="19"/>
@@ -21075,7 +21131,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="2">
         <f t="shared" si="19"/>
@@ -21096,7 +21152,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="2">
         <f t="shared" si="19"/>
@@ -21117,7 +21173,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="2">
         <f t="shared" si="19"/>
@@ -21138,7 +21194,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="2">
         <f t="shared" si="19"/>
@@ -21159,7 +21215,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="2">
         <f t="shared" si="19"/>
@@ -21180,7 +21236,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="2">
         <f t="shared" si="19"/>
@@ -21201,7 +21257,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="2">
         <f t="shared" si="19"/>
@@ -21222,28 +21278,28 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="2">
-        <f t="shared" ref="B388:B451" si="22">B387+$M$2*B387*C387-$N$2*B387</f>
+        <f t="shared" ref="B388:B451" si="22">B387+$M$3*B387*C387-$N$3*B387</f>
         <v>28.915227903815488</v>
       </c>
       <c r="C388" s="2">
-        <f t="shared" ref="C388:C451" si="23">C387+$L$2*C387-$M$2*B387*C387</f>
+        <f t="shared" ref="C388:C451" si="23">C387+$L$3*C387-$M$3*B387*C387</f>
         <v>92.168502158231178</v>
       </c>
       <c r="D388" t="str">
-        <f t="shared" ref="D388:E451" si="24">IF(B388&lt;B387,"Tak","Nie")</f>
+        <f t="shared" si="21"/>
         <v>Tak</v>
       </c>
       <c r="E388" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>Nie</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="2">
         <f t="shared" si="22"/>
@@ -21254,7 +21310,7 @@
         <v>92.679335578666524</v>
       </c>
       <c r="D389" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="D389:E452" si="24">IF(B389&lt;B388,"Tak","Nie")</f>
         <v>Tak</v>
       </c>
       <c r="E389" t="str">
@@ -21264,7 +21320,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="2">
         <f t="shared" si="22"/>
@@ -21285,7 +21341,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="2">
         <f t="shared" si="22"/>
@@ -21306,7 +21362,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="2">
         <f t="shared" si="22"/>
@@ -21327,7 +21383,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="2">
         <f t="shared" si="22"/>
@@ -21348,7 +21404,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="2">
         <f t="shared" si="22"/>
@@ -21369,7 +21425,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="2">
         <f t="shared" si="22"/>
@@ -21390,7 +21446,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="2">
         <f t="shared" si="22"/>
@@ -21411,7 +21467,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="2">
         <f t="shared" si="22"/>
@@ -21432,7 +21488,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="2">
         <f t="shared" si="22"/>
@@ -21453,7 +21509,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="2">
         <f t="shared" si="22"/>
@@ -21474,7 +21530,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="2">
         <f t="shared" si="22"/>
@@ -21495,7 +21551,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="2">
         <f t="shared" si="22"/>
@@ -21516,7 +21572,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="2">
         <f t="shared" si="22"/>
@@ -21537,7 +21593,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="2">
         <f t="shared" si="22"/>
@@ -21558,7 +21614,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="2">
         <f t="shared" si="22"/>
@@ -21579,7 +21635,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="2">
         <f t="shared" si="22"/>
@@ -21600,7 +21656,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="2">
         <f t="shared" si="22"/>
@@ -21621,7 +21677,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="2">
         <f t="shared" si="22"/>
@@ -21642,7 +21698,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="2">
         <f t="shared" si="22"/>
@@ -21663,7 +21719,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="2">
         <f t="shared" si="22"/>
@@ -21684,7 +21740,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="2">
         <f t="shared" si="22"/>
@@ -21705,7 +21761,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="2">
         <f t="shared" si="22"/>
@@ -21726,7 +21782,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="2">
         <f t="shared" si="22"/>
@@ -21747,7 +21803,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="2">
         <f t="shared" si="22"/>
@@ -21768,7 +21824,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="2">
         <f t="shared" si="22"/>
@@ -21789,7 +21845,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="2">
         <f t="shared" si="22"/>
@@ -21810,7 +21866,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="2">
         <f t="shared" si="22"/>
@@ -21831,7 +21887,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="2">
         <f t="shared" si="22"/>
@@ -21852,7 +21908,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="2">
         <f t="shared" si="22"/>
@@ -21873,7 +21929,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="2">
         <f t="shared" si="22"/>
@@ -21894,7 +21950,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="2">
         <f t="shared" si="22"/>
@@ -21915,7 +21971,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="2">
         <f t="shared" si="22"/>
@@ -21936,7 +21992,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="2">
         <f t="shared" si="22"/>
@@ -21957,7 +22013,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="2">
         <f t="shared" si="22"/>
@@ -21978,7 +22034,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="2">
         <f t="shared" si="22"/>
@@ -21999,7 +22055,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="2">
         <f t="shared" si="22"/>
@@ -22020,7 +22076,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="2">
         <f t="shared" si="22"/>
@@ -22041,7 +22097,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="2">
         <f t="shared" si="22"/>
@@ -22062,7 +22118,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="2">
         <f t="shared" si="22"/>
@@ -22083,7 +22139,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="2">
         <f t="shared" si="22"/>
@@ -22104,7 +22160,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="2">
         <f t="shared" si="22"/>
@@ -22125,7 +22181,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="2">
         <f t="shared" si="22"/>
@@ -22146,7 +22202,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="2">
         <f t="shared" si="22"/>
@@ -22167,7 +22223,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="2">
         <f t="shared" si="22"/>
@@ -22188,7 +22244,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="2">
         <f t="shared" si="22"/>
@@ -22209,7 +22265,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="2">
         <f t="shared" si="22"/>
@@ -22230,7 +22286,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="2">
         <f t="shared" si="22"/>
@@ -22251,7 +22307,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="2">
         <f t="shared" si="22"/>
@@ -22272,7 +22328,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="2">
         <f t="shared" si="22"/>
@@ -22293,7 +22349,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="2">
         <f t="shared" si="22"/>
@@ -22314,7 +22370,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="2">
         <f t="shared" si="22"/>
@@ -22335,7 +22391,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="2">
         <f t="shared" si="22"/>
@@ -22356,7 +22412,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="2">
         <f t="shared" si="22"/>
@@ -22377,7 +22433,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="2">
         <f t="shared" si="22"/>
@@ -22398,7 +22454,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="2">
         <f t="shared" si="22"/>
@@ -22419,7 +22475,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="2">
         <f t="shared" si="22"/>
@@ -22440,7 +22496,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="2">
         <f t="shared" si="22"/>
@@ -22461,7 +22517,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="2">
         <f t="shared" si="22"/>
@@ -22482,7 +22538,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="2">
         <f t="shared" si="22"/>
@@ -22503,7 +22559,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="2">
         <f t="shared" si="22"/>
@@ -22524,7 +22580,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="2">
         <f t="shared" si="22"/>
@@ -22545,7 +22601,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="2">
         <f t="shared" si="22"/>
@@ -22566,28 +22622,28 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="2">
-        <f t="shared" ref="B452:B481" si="25">B451+$M$2*B451*C451-$N$2*B451</f>
+        <f t="shared" ref="B452:B482" si="25">B451+$M$3*B451*C451-$N$3*B451</f>
         <v>39.315804489609739</v>
       </c>
       <c r="C452" s="2">
-        <f t="shared" ref="C452:C481" si="26">C451+$L$2*C451-$M$2*B451*C451</f>
+        <f t="shared" ref="C452:C482" si="26">C451+$L$3*C451-$M$3*B451*C451</f>
         <v>123.26451559749931</v>
       </c>
       <c r="D452" t="str">
-        <f t="shared" ref="D452:E481" si="27">IF(B452&lt;B451,"Tak","Nie")</f>
+        <f t="shared" si="24"/>
         <v>Nie</v>
       </c>
       <c r="E452" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>Nie</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="2">
         <f t="shared" si="25"/>
@@ -22598,7 +22654,7 @@
         <v>123.30668411158042</v>
       </c>
       <c r="D453" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="D453:E482" si="27">IF(B453&lt;B452,"Tak","Nie")</f>
         <v>Nie</v>
       </c>
       <c r="E453" t="str">
@@ -22608,7 +22664,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="2">
         <f t="shared" si="25"/>
@@ -22629,7 +22685,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="2">
         <f t="shared" si="25"/>
@@ -22650,7 +22706,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="2">
         <f t="shared" si="25"/>
@@ -22671,7 +22727,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="2">
         <f t="shared" si="25"/>
@@ -22692,7 +22748,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="2">
         <f t="shared" si="25"/>
@@ -22713,7 +22769,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="2">
         <f t="shared" si="25"/>
@@ -22734,7 +22790,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="2">
         <f t="shared" si="25"/>
@@ -22755,7 +22811,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="2">
         <f t="shared" si="25"/>
@@ -22776,7 +22832,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="2">
         <f t="shared" si="25"/>
@@ -22797,7 +22853,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="2">
         <f t="shared" si="25"/>
@@ -22818,7 +22874,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="2">
         <f t="shared" si="25"/>
@@ -22839,7 +22895,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="2">
         <f t="shared" si="25"/>
@@ -22860,7 +22916,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="2">
         <f t="shared" si="25"/>
@@ -22881,7 +22937,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="2">
         <f t="shared" si="25"/>
@@ -22902,7 +22958,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="2">
         <f t="shared" si="25"/>
@@ -22923,7 +22979,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="2">
         <f t="shared" si="25"/>
@@ -22944,7 +23000,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="2">
         <f t="shared" si="25"/>
@@ -22965,7 +23021,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="2">
         <f t="shared" si="25"/>
@@ -22986,7 +23042,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="2">
         <f t="shared" si="25"/>
@@ -23007,7 +23063,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="2">
         <f t="shared" si="25"/>
@@ -23028,7 +23084,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="2">
         <f t="shared" si="25"/>
@@ -23049,7 +23105,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="2">
         <f t="shared" si="25"/>
@@ -23070,7 +23126,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="2">
         <f t="shared" si="25"/>
@@ -23091,7 +23147,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="2">
         <f t="shared" si="25"/>
@@ -23112,7 +23168,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="2">
         <f t="shared" si="25"/>
@@ -23133,7 +23189,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="2">
         <f t="shared" si="25"/>
@@ -23154,7 +23210,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="2">
         <f t="shared" si="25"/>
@@ -23175,7 +23231,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="2">
         <f t="shared" si="25"/>
@@ -23190,6 +23246,27 @@
         <v>Nie</v>
       </c>
       <c r="E481" t="str">
+        <f t="shared" si="27"/>
+        <v>Tak</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>480</v>
+      </c>
+      <c r="B482" s="2">
+        <f t="shared" si="25"/>
+        <v>52.971811290338501</v>
+      </c>
+      <c r="C482" s="2">
+        <f t="shared" si="26"/>
+        <v>112.29686925593948</v>
+      </c>
+      <c r="D482" t="str">
+        <f t="shared" si="27"/>
+        <v>Nie</v>
+      </c>
+      <c r="E482" t="str">
         <f t="shared" si="27"/>
         <v>Tak</v>
       </c>
@@ -36548,22 +36625,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CFA0AB-4DBF-4A59-8A07-8FBDF9BF8C1A}">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="20" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>71</v>
       </c>
@@ -36600,8 +36686,44 @@
       <c r="M2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" t="s">
+        <v>85</v>
+      </c>
+      <c r="X2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -36625,11 +36747,11 @@
         <v>94989</v>
       </c>
       <c r="I3" s="8">
-        <f>C3/$H$3</f>
+        <f>C3/$H3</f>
         <v>0.27974818136836899</v>
       </c>
       <c r="J3" s="8">
-        <f t="shared" ref="J3:M3" si="0">D3/$H$3</f>
+        <f t="shared" ref="J3:M3" si="0">D3/$H3</f>
         <v>0.13695269978629104</v>
       </c>
       <c r="K3" s="8">
@@ -36644,8 +36766,52 @@
         <f t="shared" si="0"/>
         <v>0.10165387571192454</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="8"/>
+      <c r="P3" s="10">
+        <f>I3*20</f>
+        <v>5.5949636273673793</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" ref="Q3:S3" si="1">J3*20</f>
+        <v>2.7390539957258211</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0377306846055863</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="1"/>
+        <v>5.5951741780627229</v>
+      </c>
+      <c r="T3" s="10">
+        <f>M3*20</f>
+        <v>2.0330775142384909</v>
+      </c>
+      <c r="V3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="10">
+        <f>I26*100</f>
+        <v>27.253040327192601</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" ref="X3:AA3" si="2">J26*100</f>
+        <v>13.258997660974043</v>
+      </c>
+      <c r="Y3" s="10">
+        <f t="shared" si="2"/>
+        <v>21.830728242044469</v>
+      </c>
+      <c r="Z3" s="10">
+        <f t="shared" si="2"/>
+        <v>27.253311361486571</v>
+      </c>
+      <c r="AA3" s="10">
+        <f t="shared" si="2"/>
+        <v>10.403922408302323</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -36665,31 +36831,75 @@
         <v>3464</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H22" si="1">SUM(C4:G4)</f>
+        <f t="shared" ref="H4:H22" si="3">SUM(C4:G4)</f>
         <v>61487</v>
       </c>
       <c r="I4" s="8">
-        <f t="shared" ref="I4:I22" si="2">C4/$H$3</f>
-        <v>0.258703639368769</v>
+        <f t="shared" ref="I4:I22" si="4">C4/$H4</f>
+        <v>0.39966171711093401</v>
       </c>
       <c r="J4" s="8">
-        <f t="shared" ref="J4:J22" si="3">D4/$H$3</f>
-        <v>0.10942319637010602</v>
+        <f t="shared" ref="J4:J22" si="5">D4/$H4</f>
+        <v>0.16904386293037552</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K22" si="4">E4/$H$3</f>
-        <v>0.1027066291886429</v>
+        <f t="shared" ref="K4:K22" si="6">E4/$H4</f>
+        <v>0.15866768585229399</v>
       </c>
       <c r="L4" s="8">
-        <f t="shared" ref="L4:L22" si="5">F4/$H$3</f>
-        <v>0.14000568486877427</v>
+        <f t="shared" ref="L4:L22" si="7">F4/$H4</f>
+        <v>0.21628962219656186</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M22" si="6">G4/$H$3</f>
-        <v>3.6467380433523884E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M4:M22" si="8">G4/$H4</f>
+        <v>5.6337111909834599E-2</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="P4" s="10">
+        <f t="shared" ref="P4:P22" si="9">I4*20</f>
+        <v>7.9932343422186802</v>
+      </c>
+      <c r="Q4" s="10">
+        <f t="shared" ref="Q4:Q22" si="10">J4*20</f>
+        <v>3.3808772586075104</v>
+      </c>
+      <c r="R4" s="10">
+        <f t="shared" ref="R4:R22" si="11">K4*20</f>
+        <v>3.1733537170458797</v>
+      </c>
+      <c r="S4" s="10">
+        <f t="shared" ref="S4:S22" si="12">L4*20</f>
+        <v>4.3257924439312374</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" ref="T4:T22" si="13">M4*20</f>
+        <v>1.1267422381966921</v>
+      </c>
+      <c r="V4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" s="10">
+        <f t="shared" ref="W4:W6" si="14">I27*100</f>
+        <v>19.911729805560853</v>
+      </c>
+      <c r="X4" s="10">
+        <f t="shared" ref="X4:X6" si="15">J27*100</f>
+        <v>13.364596879526266</v>
+      </c>
+      <c r="Y4" s="10">
+        <f t="shared" ref="Y4:Y6" si="16">K27*100</f>
+        <v>23.302819125777912</v>
+      </c>
+      <c r="Z4" s="10">
+        <f t="shared" ref="Z4:Z6" si="17">L27*100</f>
+        <v>34.824612074975597</v>
+      </c>
+      <c r="AA4" s="10">
+        <f t="shared" ref="AA4:AA6" si="18">M27*100</f>
+        <v>8.5962421141593701</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>53</v>
       </c>
@@ -36709,31 +36919,75 @@
         <v>8448</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>67178</v>
       </c>
       <c r="I5" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13511038120203392</v>
+        <f t="shared" si="4"/>
+        <v>0.19104468724880169</v>
       </c>
       <c r="J5" s="8">
-        <f t="shared" si="3"/>
-        <v>0.11645558959458463</v>
+        <f t="shared" si="5"/>
+        <v>0.16466700407871623</v>
       </c>
       <c r="K5" s="8">
-        <f t="shared" si="4"/>
-        <v>0.10640179389192433</v>
+        <f t="shared" si="6"/>
+        <v>0.15045104051921759</v>
       </c>
       <c r="L5" s="8">
-        <f t="shared" si="5"/>
-        <v>0.26031435218814808</v>
+        <f t="shared" si="7"/>
+        <v>0.36808181249813926</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" si="6"/>
-        <v>8.8936613713166787E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12575545565512519</v>
+      </c>
+      <c r="N5" s="8"/>
+      <c r="P5" s="10">
+        <f t="shared" si="9"/>
+        <v>3.8208937449760336</v>
+      </c>
+      <c r="Q5" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2933400815743248</v>
+      </c>
+      <c r="R5" s="10">
+        <f t="shared" si="11"/>
+        <v>3.0090208103843521</v>
+      </c>
+      <c r="S5" s="10">
+        <f t="shared" si="12"/>
+        <v>7.3616362499627854</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5151091131025041</v>
+      </c>
+      <c r="V5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W5" s="10">
+        <f t="shared" si="14"/>
+        <v>25.895177690747566</v>
+      </c>
+      <c r="X5" s="10">
+        <f t="shared" si="15"/>
+        <v>15.062203425648175</v>
+      </c>
+      <c r="Y5" s="10">
+        <f t="shared" si="16"/>
+        <v>18.184038708013031</v>
+      </c>
+      <c r="Z5" s="10">
+        <f t="shared" si="17"/>
+        <v>32.725616065032973</v>
+      </c>
+      <c r="AA5" s="10">
+        <f t="shared" si="18"/>
+        <v>8.1329641105582517</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -36753,31 +37007,75 @@
         <v>8820</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>70318</v>
       </c>
       <c r="I6" s="8">
-        <f t="shared" si="2"/>
-        <v>0.2428807546136921</v>
+        <f t="shared" si="4"/>
+        <v>0.32809522455132401</v>
       </c>
       <c r="J6" s="8">
-        <f t="shared" si="3"/>
-        <v>6.0607017654675806E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.1870929207315341E-2</v>
       </c>
       <c r="K6" s="8">
-        <f t="shared" si="4"/>
-        <v>0.1689458779437619</v>
+        <f t="shared" si="6"/>
+        <v>0.22822037031769959</v>
       </c>
       <c r="L6" s="8">
-        <f t="shared" si="5"/>
-        <v>0.17498868290012529</v>
+        <f t="shared" si="7"/>
+        <v>0.23638328735174494</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="6"/>
-        <v>9.2852856646559082E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12543018857191615</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="P6" s="10">
+        <f t="shared" si="9"/>
+        <v>6.5619044910264801</v>
+      </c>
+      <c r="Q6" s="10">
+        <f t="shared" si="10"/>
+        <v>1.6374185841463067</v>
+      </c>
+      <c r="R6" s="10">
+        <f t="shared" si="11"/>
+        <v>4.5644074063539914</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="12"/>
+        <v>4.7276657470348988</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5086037714383229</v>
+      </c>
+      <c r="V6" t="s">
+        <v>95</v>
+      </c>
+      <c r="W6" s="10">
+        <f t="shared" si="14"/>
+        <v>23.57627203462987</v>
+      </c>
+      <c r="X6" s="10">
+        <f t="shared" si="15"/>
+        <v>15.43518784952021</v>
+      </c>
+      <c r="Y6" s="10">
+        <f t="shared" si="16"/>
+        <v>18.885976654864823</v>
+      </c>
+      <c r="Z6" s="10">
+        <f t="shared" si="17"/>
+        <v>30.649873015475848</v>
+      </c>
+      <c r="AA6" s="10">
+        <f t="shared" si="18"/>
+        <v>11.452690445509251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>55</v>
       </c>
@@ -36797,31 +37095,52 @@
         <v>7998</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>74985</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="2"/>
-        <v>0.14212171935697818</v>
+        <f t="shared" si="4"/>
+        <v>0.18003600720144028</v>
       </c>
       <c r="J7" s="8">
-        <f t="shared" si="3"/>
-        <v>9.1568497404962673E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.1159965326398613</v>
       </c>
       <c r="K7" s="8">
-        <f t="shared" si="4"/>
-        <v>0.26800998010295929</v>
+        <f t="shared" si="6"/>
+        <v>0.33950790158031607</v>
       </c>
       <c r="L7" s="8">
-        <f t="shared" si="5"/>
-        <v>0.20350777458442557</v>
+        <f t="shared" si="7"/>
+        <v>0.25779822631192906</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="6"/>
-        <v>8.4199223067934176E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.10666133226645329</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="P7" s="10">
+        <f t="shared" si="9"/>
+        <v>3.6007201440288057</v>
+      </c>
+      <c r="Q7" s="10">
+        <f t="shared" si="10"/>
+        <v>2.3199306527972259</v>
+      </c>
+      <c r="R7" s="10">
+        <f t="shared" si="11"/>
+        <v>6.790158031606321</v>
+      </c>
+      <c r="S7" s="10">
+        <f t="shared" si="12"/>
+        <v>5.1559645262385807</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="13"/>
+        <v>2.1332266453290658</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>56</v>
       </c>
@@ -36841,31 +37160,52 @@
         <v>9219</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>72187</v>
       </c>
       <c r="I8" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13042562823063722</v>
+        <f t="shared" si="4"/>
+        <v>0.17162369955809217</v>
       </c>
       <c r="J8" s="8">
-        <f t="shared" si="3"/>
-        <v>0.12723578519618062</v>
+        <f t="shared" si="5"/>
+        <v>0.16742626788756979</v>
       </c>
       <c r="K8" s="8">
-        <f t="shared" si="4"/>
-        <v>0.1972017812588826</v>
+        <f t="shared" si="6"/>
+        <v>0.25949270644298833</v>
       </c>
       <c r="L8" s="8">
-        <f t="shared" si="5"/>
-        <v>0.20803461453431449</v>
+        <f t="shared" si="7"/>
+        <v>0.27374735063100003</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="6"/>
-        <v>9.705334301866532E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12770997548034965</v>
+      </c>
+      <c r="N8" s="8"/>
+      <c r="P8" s="10">
+        <f t="shared" si="9"/>
+        <v>3.4324739911618436</v>
+      </c>
+      <c r="Q8" s="10">
+        <f t="shared" si="10"/>
+        <v>3.3485253577513956</v>
+      </c>
+      <c r="R8" s="10">
+        <f t="shared" si="11"/>
+        <v>5.1898541288597668</v>
+      </c>
+      <c r="S8" s="10">
+        <f t="shared" si="12"/>
+        <v>5.4749470126200004</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5541995096069932</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>57</v>
       </c>
@@ -36885,31 +37225,52 @@
         <v>3414</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71950</v>
       </c>
       <c r="I9" s="8">
-        <f t="shared" si="2"/>
-        <v>0.23104780553537779</v>
+        <f t="shared" si="4"/>
+        <v>0.30503127171646977</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" si="3"/>
-        <v>6.6397161776626773E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.765809589993051E-2</v>
       </c>
       <c r="K9" s="8">
-        <f t="shared" si="4"/>
-        <v>0.12020339197170199</v>
+        <f t="shared" si="6"/>
+        <v>0.15869353717859624</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" si="5"/>
-        <v>0.30386676351998654</v>
+        <f t="shared" si="7"/>
+        <v>0.40116747741487147</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="6"/>
-        <v>3.5941003695164703E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>4.7449617790132036E-2</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="P9" s="10">
+        <f t="shared" si="9"/>
+        <v>6.1006254343293955</v>
+      </c>
+      <c r="Q9" s="10">
+        <f t="shared" si="10"/>
+        <v>1.7531619179986102</v>
+      </c>
+      <c r="R9" s="10">
+        <f t="shared" si="11"/>
+        <v>3.1738707435719249</v>
+      </c>
+      <c r="S9" s="10">
+        <f t="shared" si="12"/>
+        <v>8.0233495482974284</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="13"/>
+        <v>0.94899235580264074</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>58</v>
       </c>
@@ -36929,31 +37290,52 @@
         <v>4796</v>
       </c>
       <c r="H10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>62913</v>
       </c>
       <c r="I10" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10393835075640337</v>
+        <f t="shared" si="4"/>
+        <v>0.1569309999523151</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="3"/>
-        <v>0.11225510322247839</v>
+        <f t="shared" si="5"/>
+        <v>0.1694880231430706</v>
       </c>
       <c r="K10" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18423185842571246</v>
+        <f t="shared" si="6"/>
+        <v>0.27816190612433045</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" si="5"/>
-        <v>0.21140342565981324</v>
+        <f t="shared" si="7"/>
+        <v>0.31918681353615308</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="6"/>
-        <v>5.0490056743412393E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>7.6232257244130783E-2</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="P10" s="10">
+        <f t="shared" si="9"/>
+        <v>3.138619999046302</v>
+      </c>
+      <c r="Q10" s="10">
+        <f t="shared" si="10"/>
+        <v>3.3897604628614122</v>
+      </c>
+      <c r="R10" s="10">
+        <f t="shared" si="11"/>
+        <v>5.5632381224866094</v>
+      </c>
+      <c r="S10" s="10">
+        <f t="shared" si="12"/>
+        <v>6.3837362707230616</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="13"/>
+        <v>1.5246451448826157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>59</v>
       </c>
@@ -36973,31 +37355,52 @@
         <v>8805</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69326</v>
       </c>
       <c r="I11" s="8">
-        <f t="shared" si="2"/>
-        <v>0.12742528082198992</v>
+        <f t="shared" si="4"/>
+        <v>0.17459538989700835</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="3"/>
-        <v>6.1407110296981753E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.4138706978622732E-2</v>
       </c>
       <c r="K11" s="8">
-        <f t="shared" si="4"/>
-        <v>0.15047005442735475</v>
+        <f t="shared" si="6"/>
+        <v>0.20617084499322044</v>
       </c>
       <c r="L11" s="8">
-        <f t="shared" si="5"/>
-        <v>0.29783448609839036</v>
+        <f t="shared" si="7"/>
+        <v>0.40808643221879237</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="6"/>
-        <v>9.2694943625051318E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12700862591235612</v>
+      </c>
+      <c r="N11" s="8"/>
+      <c r="P11" s="10">
+        <f t="shared" si="9"/>
+        <v>3.4919077979401667</v>
+      </c>
+      <c r="Q11" s="10">
+        <f t="shared" si="10"/>
+        <v>1.6827741395724547</v>
+      </c>
+      <c r="R11" s="10">
+        <f t="shared" si="11"/>
+        <v>4.1234168998644085</v>
+      </c>
+      <c r="S11" s="10">
+        <f t="shared" si="12"/>
+        <v>8.161728644375847</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5401725182471226</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>60</v>
       </c>
@@ -37017,31 +37420,52 @@
         <v>3975</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75045</v>
       </c>
       <c r="I12" s="8">
-        <f t="shared" si="2"/>
-        <v>0.14381665245449474</v>
+        <f t="shared" si="4"/>
+        <v>0.18203744420014659</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="3"/>
-        <v>0.12714103738327595</v>
+        <f t="shared" si="5"/>
+        <v>0.16093010860150575</v>
       </c>
       <c r="K12" s="8">
-        <f t="shared" si="4"/>
-        <v>0.21000326353577783</v>
+        <f t="shared" si="6"/>
+        <v>0.26581384502631755</v>
       </c>
       <c r="L12" s="8">
-        <f t="shared" si="5"/>
-        <v>0.2672309425301877</v>
+        <f t="shared" si="7"/>
+        <v>0.33825038310347127</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="6"/>
-        <v>4.1846950699554686E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>5.2968219068558864E-2</v>
+      </c>
+      <c r="N12" s="8"/>
+      <c r="P12" s="10">
+        <f t="shared" si="9"/>
+        <v>3.6407488840029316</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2186021720301152</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="11"/>
+        <v>5.3162769005263506</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="12"/>
+        <v>6.7650076620694257</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0593643813711773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -37061,31 +37485,52 @@
         <v>4748</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79735</v>
       </c>
       <c r="I13" s="8">
-        <f t="shared" si="2"/>
-        <v>0.21063491562180883</v>
+        <f t="shared" si="4"/>
+        <v>0.25093120963190568</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="3"/>
-        <v>0.11336049437303267</v>
+        <f t="shared" si="5"/>
+        <v>0.13504734432808679</v>
       </c>
       <c r="K13" s="8">
-        <f t="shared" si="4"/>
-        <v>0.18321068755329564</v>
+        <f t="shared" si="6"/>
+        <v>0.21826048786605631</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" si="5"/>
-        <v>0.28222215203865708</v>
+        <f t="shared" si="7"/>
+        <v>0.33621370790744343</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="6"/>
-        <v>4.9984735074587582E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>5.9547250266507805E-2</v>
+      </c>
+      <c r="N13" s="8"/>
+      <c r="P13" s="10">
+        <f t="shared" si="9"/>
+        <v>5.0186241926381134</v>
+      </c>
+      <c r="Q13" s="10">
+        <f t="shared" si="10"/>
+        <v>2.7009468865617361</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="11"/>
+        <v>4.3652097573211259</v>
+      </c>
+      <c r="S13" s="10">
+        <f t="shared" si="12"/>
+        <v>6.7242741581488685</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" si="13"/>
+        <v>1.190945005330156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>62</v>
       </c>
@@ -37105,31 +37550,52 @@
         <v>4013</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73675</v>
       </c>
       <c r="I14" s="8">
-        <f t="shared" si="2"/>
-        <v>0.17158828917032498</v>
+        <f t="shared" si="4"/>
+        <v>0.22122836783169325</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="3"/>
-        <v>0.12610933897609197</v>
+        <f t="shared" si="5"/>
+        <v>0.1625924669155073</v>
       </c>
       <c r="K14" s="8">
-        <f t="shared" si="4"/>
-        <v>0.13520512901493859</v>
+        <f t="shared" si="6"/>
+        <v>0.17431964709874448</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="5"/>
-        <v>0.30046636979018621</v>
+        <f t="shared" si="7"/>
+        <v>0.38739056667797761</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="6"/>
-        <v>4.2246997020707659E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>5.4468951476077367E-2</v>
+      </c>
+      <c r="N14" s="8"/>
+      <c r="P14" s="10">
+        <f t="shared" si="9"/>
+        <v>4.4245673566338652</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="10"/>
+        <v>3.2518493383101461</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="11"/>
+        <v>3.4863929419748896</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="12"/>
+        <v>7.747811333559552</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="13"/>
+        <v>1.0893790295215473</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>63</v>
       </c>
@@ -37149,31 +37615,52 @@
         <v>8861</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>65751</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.25620861362894654</v>
+        <f t="shared" si="4"/>
+        <v>0.37013885720369272</v>
       </c>
       <c r="J15" s="8">
-        <f t="shared" si="3"/>
-        <v>7.0808198844076686E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10229502212894101</v>
       </c>
       <c r="K15" s="8">
-        <f t="shared" si="4"/>
-        <v>0.11319205381675773</v>
+        <f t="shared" si="6"/>
+        <v>0.16352603002235708</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="5"/>
-        <v>0.1587025866152923</v>
+        <f t="shared" si="7"/>
+        <v>0.22927407948168088</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="6"/>
-        <v>9.3284485572013603E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.13476601116332831</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="P15" s="10">
+        <f t="shared" si="9"/>
+        <v>7.4027771440738546</v>
+      </c>
+      <c r="Q15" s="10">
+        <f t="shared" si="10"/>
+        <v>2.0459004425788203</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="11"/>
+        <v>3.2705206004471417</v>
+      </c>
+      <c r="S15" s="10">
+        <f t="shared" si="12"/>
+        <v>4.5854815896336181</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="13"/>
+        <v>2.6953202232665663</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>64</v>
       </c>
@@ -37193,31 +37680,52 @@
         <v>5534</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>69332</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="2"/>
-        <v>0.13618418974828664</v>
+        <f t="shared" si="4"/>
+        <v>0.18658051116367622</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="3"/>
-        <v>0.12248786701618082</v>
+        <f t="shared" si="5"/>
+        <v>0.16781572722552357</v>
       </c>
       <c r="K16" s="8">
-        <f t="shared" si="4"/>
-        <v>0.16753518828495931</v>
+        <f t="shared" si="6"/>
+        <v>0.2295332602550049</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="5"/>
-        <v>0.24542841802735055</v>
+        <f t="shared" si="7"/>
+        <v>0.33625165868574397</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="6"/>
-        <v>5.825937740159387E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>7.9818842670051349E-2</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="P16" s="10">
+        <f t="shared" si="9"/>
+        <v>3.7316102232735244</v>
+      </c>
+      <c r="Q16" s="10">
+        <f t="shared" si="10"/>
+        <v>3.3563145445104716</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="11"/>
+        <v>4.5906652051000982</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="12"/>
+        <v>6.7250331737148796</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="13"/>
+        <v>1.596376853401027</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>65</v>
       </c>
@@ -37237,31 +37745,52 @@
         <v>6478</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>75876</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="2"/>
-        <v>0.21869900725347147</v>
+        <f t="shared" si="4"/>
+        <v>0.27378881332700722</v>
       </c>
       <c r="J17" s="8">
-        <f t="shared" si="3"/>
-        <v>0.14500626388318646</v>
+        <f t="shared" si="5"/>
+        <v>0.18153302757130055</v>
       </c>
       <c r="K17" s="8">
-        <f t="shared" si="4"/>
-        <v>9.8379812399330455E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.12316147398386841</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="5"/>
-        <v>0.26850477423701691</v>
+        <f t="shared" si="7"/>
+        <v>0.33614054509989982</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="6"/>
-        <v>6.8197370221815157E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>8.5376140017923985E-2</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="P17" s="10">
+        <f t="shared" si="9"/>
+        <v>5.4757762665401444</v>
+      </c>
+      <c r="Q17" s="10">
+        <f t="shared" si="10"/>
+        <v>3.6306605514260109</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="11"/>
+        <v>2.4632294796773682</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="12"/>
+        <v>6.7228109019979962</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="13"/>
+        <v>1.7075228003584797</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>66</v>
       </c>
@@ -37281,31 +37810,52 @@
         <v>9212</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>73580</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="2"/>
-        <v>0.21126656770783986</v>
+        <f t="shared" si="4"/>
+        <v>0.27273715683609678</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="3"/>
-        <v>9.0073587468022617E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.11628159826039684</v>
       </c>
       <c r="K18" s="8">
-        <f t="shared" si="4"/>
-        <v>0.10772826327258946</v>
+        <f t="shared" si="6"/>
+        <v>0.13907311769502581</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="5"/>
-        <v>0.26856793944562002</v>
+        <f t="shared" si="7"/>
+        <v>0.34671106278880132</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="6"/>
-        <v>9.6979650275295037E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12519706441967926</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="P18" s="10">
+        <f t="shared" si="9"/>
+        <v>5.4547431367219357</v>
+      </c>
+      <c r="Q18" s="10">
+        <f t="shared" si="10"/>
+        <v>2.3256319652079367</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="11"/>
+        <v>2.7814623539005163</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="12"/>
+        <v>6.9342212557760261</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5039412883935852</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>67</v>
       </c>
@@ -37325,31 +37875,52 @@
         <v>4405</v>
       </c>
       <c r="H19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>71402</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="2"/>
-        <v>0.21030856204402615</v>
+        <f t="shared" si="4"/>
+        <v>0.27978207893336321</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="3"/>
-        <v>8.697849224647064E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.11571104450855718</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="4"/>
-        <v>0.19184326606238616</v>
+        <f t="shared" si="6"/>
+        <v>0.25521694070194112</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="5"/>
-        <v>0.21618292644411458</v>
+        <f t="shared" si="7"/>
+        <v>0.28759698607882134</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="6"/>
-        <v>4.6373790649443622E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>6.1692949777317159E-2</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="P19" s="10">
+        <f t="shared" si="9"/>
+        <v>5.595641578667264</v>
+      </c>
+      <c r="Q19" s="10">
+        <f t="shared" si="10"/>
+        <v>2.3142208901711436</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="11"/>
+        <v>5.1043388140388224</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="12"/>
+        <v>5.7519397215764272</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2338589955463433</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>68</v>
       </c>
@@ -37369,31 +37940,52 @@
         <v>7198</v>
       </c>
       <c r="H20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>60146</v>
       </c>
       <c r="I20" s="8">
-        <f t="shared" si="2"/>
-        <v>9.0915790249397305E-2</v>
+        <f t="shared" si="4"/>
+        <v>0.14358394573205199</v>
       </c>
       <c r="J20" s="8">
-        <f t="shared" si="3"/>
-        <v>0.11009695859520575</v>
+        <f t="shared" si="5"/>
+        <v>0.17387689954444185</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="4"/>
-        <v>0.13146785417258841</v>
+        <f t="shared" si="6"/>
+        <v>0.20762810494463471</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="5"/>
-        <v>0.22493130783564413</v>
+        <f t="shared" si="7"/>
+        <v>0.35523559338941907</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="6"/>
-        <v>7.5777195254187329E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.11967545638945233</v>
+      </c>
+      <c r="N20" s="8"/>
+      <c r="P20" s="10">
+        <f t="shared" si="9"/>
+        <v>2.87167891464104</v>
+      </c>
+      <c r="Q20" s="10">
+        <f t="shared" si="10"/>
+        <v>3.4775379908888371</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="11"/>
+        <v>4.1525620988926946</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="12"/>
+        <v>7.1047118677883816</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" si="13"/>
+        <v>2.3935091277890468</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>69</v>
       </c>
@@ -37413,31 +38005,52 @@
         <v>7940</v>
       </c>
       <c r="H21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>63234</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.17130404573161104</v>
+        <f t="shared" si="4"/>
+        <v>0.25732991744947337</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="3"/>
-        <v>0.1162239838297066</v>
+        <f t="shared" si="5"/>
+        <v>0.17458961950849228</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="4"/>
-        <v>8.4336081019907569E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.12668817408356264</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="5"/>
-        <v>0.21024539683542304</v>
+        <f t="shared" si="7"/>
+        <v>0.31582692855109595</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="6"/>
-        <v>8.3588626051437534E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.12556536040737579</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="P21" s="10">
+        <f t="shared" si="9"/>
+        <v>5.1465983489894676</v>
+      </c>
+      <c r="Q21" s="10">
+        <f t="shared" si="10"/>
+        <v>3.4917923901698456</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="11"/>
+        <v>2.5337634816712526</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="12"/>
+        <v>6.3165385710219191</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="13"/>
+        <v>2.5113072081475156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -37457,73 +38070,326 @@
         <v>7862</v>
       </c>
       <c r="H22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51362</v>
       </c>
       <c r="I22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.10976007748265589</v>
+        <f t="shared" si="4"/>
+        <v>0.20299053775164519</v>
       </c>
       <c r="J22" s="8">
-        <f t="shared" si="3"/>
-        <v>0.1161608186211035</v>
+        <f t="shared" si="5"/>
+        <v>0.21482808301857403</v>
       </c>
       <c r="K22" s="8">
-        <f t="shared" si="4"/>
-        <v>0.12030866731937383</v>
+        <f t="shared" si="6"/>
+        <v>0.22249912386589307</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="5"/>
-        <v>0.11171819894935203</v>
+        <f t="shared" si="7"/>
+        <v>0.20661189206027802</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="6"/>
-        <v>8.2767478339597217E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.15307036330360968</v>
+      </c>
+      <c r="N22" s="8"/>
+      <c r="P22" s="10">
+        <f t="shared" si="9"/>
+        <v>4.0598107550329035</v>
+      </c>
+      <c r="Q22" s="10">
+        <f t="shared" si="10"/>
+        <v>4.2965616603714807</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="11"/>
+        <v>4.4499824773178611</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="12"/>
+        <v>4.1322378412055603</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="13"/>
+        <v>3.0614072660721936</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
         <v>83</v>
       </c>
       <c r="I23" s="9">
         <f>MAX(I3:I22)</f>
-        <v>0.27974818136836899</v>
+        <v>0.39966171711093401</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" ref="J23:M23" si="7">MAX(J3:J22)</f>
-        <v>0.14500626388318646</v>
+        <f t="shared" ref="J23:M23" si="19">MAX(J3:J22)</f>
+        <v>0.21482808301857403</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="7"/>
-        <v>0.26800998010295929</v>
+        <f t="shared" si="19"/>
+        <v>0.33950790158031607</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="7"/>
-        <v>0.30386676351998654</v>
+        <f t="shared" si="19"/>
+        <v>0.40808643221879237</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="7"/>
-        <v>0.10165387571192454</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="19"/>
+        <v>0.15307036330360968</v>
+      </c>
+      <c r="N23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
         <v>84</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s">
         <v>55</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>51</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C3:C7)</f>
+        <v>100552</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:G26" si="20">SUM(D3:D7)</f>
+        <v>48920</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="20"/>
+        <v>80546</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="20"/>
+        <v>100553</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="20"/>
+        <v>38386</v>
+      </c>
+      <c r="H26">
+        <f>SUM(C26:G26)</f>
+        <v>368957</v>
+      </c>
+      <c r="I26" s="8">
+        <f>C26/$H26</f>
+        <v>0.27253040327192601</v>
+      </c>
+      <c r="J26" s="8">
+        <f t="shared" ref="J26:M26" si="21">D26/$H26</f>
+        <v>0.13258997660974042</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="21"/>
+        <v>0.21830728242044467</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="21"/>
+        <v>0.27253311361486571</v>
+      </c>
+      <c r="M26" s="8">
+        <f t="shared" si="21"/>
+        <v>0.10403922408302323</v>
+      </c>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C8:C12)</f>
+        <v>69974</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:G27" si="22">SUM(D8:D12)</f>
+        <v>46966</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="22"/>
+        <v>81891</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="22"/>
+        <v>122381</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="22"/>
+        <v>30209</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H29" si="23">SUM(C27:G27)</f>
+        <v>351421</v>
+      </c>
+      <c r="I27" s="8">
+        <f t="shared" ref="I27:I29" si="24">C27/$H27</f>
+        <v>0.19911729805560852</v>
+      </c>
+      <c r="J27" s="8">
+        <f t="shared" ref="J27:J29" si="25">D27/$H27</f>
+        <v>0.13364596879526267</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" ref="K27:K29" si="26">E27/$H27</f>
+        <v>0.23302819125777913</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" ref="L27:L29" si="27">F27/$H27</f>
+        <v>0.34824612074975597</v>
+      </c>
+      <c r="M27" s="8">
+        <f t="shared" ref="M27:M29" si="28">G27/$H27</f>
+        <v>8.5962421141593706E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28">
+        <f>SUM(C13:C17)</f>
+        <v>94354</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:G28" si="29">SUM(D13:D17)</f>
+        <v>54882</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="29"/>
+        <v>66257</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="29"/>
+        <v>119242</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="29"/>
+        <v>29634</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="23"/>
+        <v>364369</v>
+      </c>
+      <c r="I28" s="8">
+        <f t="shared" si="24"/>
+        <v>0.25895177690747567</v>
+      </c>
+      <c r="J28" s="8">
+        <f t="shared" si="25"/>
+        <v>0.15062203425648174</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="26"/>
+        <v>0.18184038708013031</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="27"/>
+        <v>0.32725616065032975</v>
+      </c>
+      <c r="M28" s="8">
+        <f t="shared" si="28"/>
+        <v>8.1329641105582523E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <f>SUM(C18:C22)</f>
+        <v>75379</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:G29" si="30">SUM(D18:D22)</f>
+        <v>49350</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="30"/>
+        <v>60383</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="30"/>
+        <v>97995</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="30"/>
+        <v>36617</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="23"/>
+        <v>319724</v>
+      </c>
+      <c r="I29" s="8">
+        <f t="shared" si="24"/>
+        <v>0.23576272034629869</v>
+      </c>
+      <c r="J29" s="8">
+        <f t="shared" si="25"/>
+        <v>0.1543518784952021</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="26"/>
+        <v>0.18885976654864822</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="27"/>
+        <v>0.30649873015475848</v>
+      </c>
+      <c r="M29" s="8">
+        <f t="shared" si="28"/>
+        <v>0.11452690445509252</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>50000</v>
+      </c>
+      <c r="D33">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
